--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -2,35 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15105" windowHeight="6555" tabRatio="782"/>
+    <workbookView activeTab="9" firstSheet="5" tabRatio="782" windowHeight="6555" windowWidth="15105" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheets" sheetId="8" r:id="rId1"/>
-    <sheet name="NewEmail" sheetId="6" r:id="rId2"/>
-    <sheet name="ExistingEmail" sheetId="1" r:id="rId3"/>
-    <sheet name="SubjectLine" sheetId="2" r:id="rId4"/>
-    <sheet name="NonMembers" sheetId="3" r:id="rId5"/>
-    <sheet name="SubsUpgrade" sheetId="9" r:id="rId6"/>
-    <sheet name="CampaignCodes" sheetId="5" r:id="rId7"/>
-    <sheet name="trial" sheetId="7" r:id="rId8"/>
-    <sheet name="CardUpdated" sheetId="10" r:id="rId9"/>
-    <sheet name="ChurnPayingMember" sheetId="11" r:id="rId10"/>
-    <sheet name="ForgotPassword" sheetId="12" r:id="rId11"/>
-    <sheet name="GiftcardOrderConfirmation" sheetId="13" r:id="rId12"/>
-    <sheet name="SubsDowngrade" sheetId="14" r:id="rId13"/>
-    <sheet name="ChurnFreeTrialCampaign" sheetId="15" r:id="rId14"/>
-    <sheet name="MemberPaying" sheetId="16" r:id="rId15"/>
-    <sheet name="PurchaseGiftCard" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheets" r:id="rId1" sheetId="8"/>
+    <sheet name="NewEmail" r:id="rId2" sheetId="6"/>
+    <sheet name="ExistingEmail" r:id="rId3" sheetId="1"/>
+    <sheet name="SubjectLine" r:id="rId4" sheetId="2"/>
+    <sheet name="NonMembers" r:id="rId5" sheetId="3"/>
+    <sheet name="SubsUpgrade" r:id="rId6" sheetId="9"/>
+    <sheet name="CampaignCodes" r:id="rId7" sheetId="5"/>
+    <sheet name="trial" r:id="rId8" sheetId="7"/>
+    <sheet name="CardUpdated" r:id="rId9" sheetId="10"/>
+    <sheet name="ChurnPayingMember" r:id="rId10" sheetId="11"/>
+    <sheet name="ForgotPassword" r:id="rId11" sheetId="12"/>
+    <sheet name="GiftcardOrderConfirmation" r:id="rId12" sheetId="13"/>
+    <sheet name="SubsDowngrade" r:id="rId13" sheetId="14"/>
+    <sheet name="ChurnFreeTrialCampaign" r:id="rId14" sheetId="15"/>
+    <sheet name="MemberPaying" r:id="rId15" sheetId="16"/>
+    <sheet name="PurchaseGiftCard" r:id="rId16" sheetId="17"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="521">
   <si>
     <t>email</t>
   </si>
@@ -860,39 +860,6 @@
     <t>nextoryautomation49@frescano.se</t>
   </si>
   <si>
-    <t>test_109860@test.se</t>
-  </si>
-  <si>
-    <t>test_111120@test.se</t>
-  </si>
-  <si>
-    <t>test_112615@test.se</t>
-  </si>
-  <si>
-    <t>test_116078@test.se</t>
-  </si>
-  <si>
-    <t>test_116675@test.se</t>
-  </si>
-  <si>
-    <t>test_117296@test.se</t>
-  </si>
-  <si>
-    <t>test_117367@test.se</t>
-  </si>
-  <si>
-    <t>test_117392@test.se</t>
-  </si>
-  <si>
-    <t>test_117520@test.se</t>
-  </si>
-  <si>
-    <t>test_117533@test.se</t>
-  </si>
-  <si>
-    <t>test_117888@test.se</t>
-  </si>
-  <si>
     <t>NFaOHR</t>
   </si>
   <si>
@@ -1094,141 +1061,6 @@
     <t>XCYYJS</t>
   </si>
   <si>
-    <t>test_170700@test.se</t>
-  </si>
-  <si>
-    <t>test_157368@test.se</t>
-  </si>
-  <si>
-    <t>test_127670@test.se</t>
-  </si>
-  <si>
-    <t>test_193944@test.se</t>
-  </si>
-  <si>
-    <t>test_194105@test.se</t>
-  </si>
-  <si>
-    <t>test_194352@test.se</t>
-  </si>
-  <si>
-    <t>test_204998@test.se</t>
-  </si>
-  <si>
-    <t>test_205004@test.se</t>
-  </si>
-  <si>
-    <t>test_205010@test.se</t>
-  </si>
-  <si>
-    <t>test_205051@test.se</t>
-  </si>
-  <si>
-    <t>test_205145@test.se</t>
-  </si>
-  <si>
-    <t>test_205258@test.se</t>
-  </si>
-  <si>
-    <t>test_216914@test.se</t>
-  </si>
-  <si>
-    <t>test_217079@test.se</t>
-  </si>
-  <si>
-    <t>test_217587@test.se</t>
-  </si>
-  <si>
-    <t>test_221446@test.se</t>
-  </si>
-  <si>
-    <t>test_225827@test.se</t>
-  </si>
-  <si>
-    <t>test_226543@test.se</t>
-  </si>
-  <si>
-    <t>test_226553@test.se</t>
-  </si>
-  <si>
-    <t>test_226621@test.se</t>
-  </si>
-  <si>
-    <t>test_226687@test.se</t>
-  </si>
-  <si>
-    <t>test_226696@test.se</t>
-  </si>
-  <si>
-    <t>test_226786@test.se</t>
-  </si>
-  <si>
-    <t>test_226803@test.se</t>
-  </si>
-  <si>
-    <t>test_226839@test.se</t>
-  </si>
-  <si>
-    <t>test_226947@test.se</t>
-  </si>
-  <si>
-    <t>test_227025@test.se</t>
-  </si>
-  <si>
-    <t>test_234405@test.se</t>
-  </si>
-  <si>
-    <t>test_241305@test.se</t>
-  </si>
-  <si>
-    <t>test_241370@test.se</t>
-  </si>
-  <si>
-    <t>test_241421@test.se</t>
-  </si>
-  <si>
-    <t>test_241511@test.se</t>
-  </si>
-  <si>
-    <t>test_241513@test.se</t>
-  </si>
-  <si>
-    <t>test_241696@test.se</t>
-  </si>
-  <si>
-    <t>test_241759@test.se</t>
-  </si>
-  <si>
-    <t>test_173582@test.se</t>
-  </si>
-  <si>
-    <t>test_255972@test.se</t>
-  </si>
-  <si>
-    <t>test_254857@test.se</t>
-  </si>
-  <si>
-    <t>test_254710@test.se</t>
-  </si>
-  <si>
-    <t>test_255975@test.se</t>
-  </si>
-  <si>
-    <t>test_255977@test.se</t>
-  </si>
-  <si>
-    <t>test_213361@test.se</t>
-  </si>
-  <si>
-    <t>test_255988@test.se</t>
-  </si>
-  <si>
-    <t>test_154663@test.se</t>
-  </si>
-  <si>
-    <t>test_256007@test.se</t>
-  </si>
-  <si>
     <t>test13Jun17_152722@frescano.se</t>
   </si>
   <si>
@@ -1238,27 +1070,6 @@
     <t>test13Jun17_153101@frescano.se</t>
   </si>
   <si>
-    <t>test_156226@test.se</t>
-  </si>
-  <si>
-    <t>test_156255@test.se</t>
-  </si>
-  <si>
-    <t>test_156544@test.se</t>
-  </si>
-  <si>
-    <t>test_156560@test.se</t>
-  </si>
-  <si>
-    <t>test_156619@test.se</t>
-  </si>
-  <si>
-    <t>test_156783@test.se</t>
-  </si>
-  <si>
-    <t>test_156834@test.se</t>
-  </si>
-  <si>
     <t>test14Jun17_105032@frescano.se</t>
   </si>
   <si>
@@ -1268,97 +1079,527 @@
     <t>test14Jun17_105415@frescano.se</t>
   </si>
   <si>
-    <t>test_107246@test.se</t>
-  </si>
-  <si>
-    <t>test_107249@test.se</t>
-  </si>
-  <si>
-    <t>test_108590@test.se</t>
-  </si>
-  <si>
-    <t>test_115225@test.se</t>
-  </si>
-  <si>
-    <t>test_115819@test.se</t>
-  </si>
-  <si>
-    <t>test_118711@test.se</t>
-  </si>
-  <si>
-    <t>test_119063@test.se</t>
-  </si>
-  <si>
-    <t>test_119108@test.se</t>
-  </si>
-  <si>
-    <t>test_119116@test.se</t>
-  </si>
-  <si>
-    <t>test_119301@test.se</t>
-  </si>
-  <si>
-    <t>test_119407@test.se</t>
-  </si>
-  <si>
-    <t>test_119420@test.se</t>
-  </si>
-  <si>
-    <t>test_119461@test.se</t>
-  </si>
-  <si>
-    <t>test_119495@test.se</t>
-  </si>
-  <si>
-    <t>test_123905@test.se</t>
-  </si>
-  <si>
-    <t>test_124793@test.se</t>
-  </si>
-  <si>
-    <t>test_126188@test.se</t>
-  </si>
-  <si>
-    <t>test_126734@test.se</t>
-  </si>
-  <si>
-    <t>test_126818@test.se</t>
-  </si>
-  <si>
-    <t>test_126834@test.se</t>
-  </si>
-  <si>
-    <t>test_126856@test.se</t>
-  </si>
-  <si>
-    <t>test_127248@test.se</t>
-  </si>
-  <si>
-    <t>test_127259@test.se</t>
-  </si>
-  <si>
-    <t>test_127280@test.se</t>
-  </si>
-  <si>
-    <t>test_127387@test.se</t>
-  </si>
-  <si>
-    <t>test_127435@test.se</t>
-  </si>
-  <si>
-    <t>test_127438@test.se</t>
-  </si>
-  <si>
-    <t>test_127479@test.se</t>
-  </si>
-  <si>
-    <t>test_127492@test.se</t>
+    <t>test14Jun17_114812@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_114929@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_115041@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_123640@frescano.se</t>
+  </si>
+  <si>
+    <t>Xg0s2K</t>
+  </si>
+  <si>
+    <t>test14Jun17_123741@frescano.se</t>
+  </si>
+  <si>
+    <t>x53Ahu</t>
+  </si>
+  <si>
+    <t>test14Jun17_124842@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_125118@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_125232@frescano.se</t>
+  </si>
+  <si>
+    <t>test14Jun17_150853@frescano.se</t>
+  </si>
+  <si>
+    <t>zkDlUm</t>
+  </si>
+  <si>
+    <t>test14Jun17_151027@frescano.se</t>
+  </si>
+  <si>
+    <t>Y0Vpgz</t>
+  </si>
+  <si>
+    <t>test15Jun17_113305@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_113650@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_114100@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_114800@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_114918@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_115043@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_115733@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_115858@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_120008@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_124602@frescano.se</t>
+  </si>
+  <si>
+    <t>Brj5CP</t>
+  </si>
+  <si>
+    <t>test15Jun17_124707@frescano.se</t>
+  </si>
+  <si>
+    <t>lDKz3I</t>
+  </si>
+  <si>
+    <t>test15Jun17_124753@frescano.se</t>
+  </si>
+  <si>
+    <t>mR7m4x</t>
+  </si>
+  <si>
+    <t>test15Jun17_125135@frescano.se</t>
+  </si>
+  <si>
+    <t>JIm6Mu</t>
+  </si>
+  <si>
+    <t>test15Jun17_130126@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_134500@frescano.se</t>
+  </si>
+  <si>
+    <t>sgrutd</t>
+  </si>
+  <si>
+    <t>test15Jun17_134627@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_134754@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_182055@frescano.se</t>
+  </si>
+  <si>
+    <t>test15Jun17_182852@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_104359@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_104556@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_104732@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_104855@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_113701@frescano.se</t>
+  </si>
+  <si>
+    <t>oE4qvg</t>
+  </si>
+  <si>
+    <t>test16Jun17_120214@frescano.se</t>
+  </si>
+  <si>
+    <t>SKxZaK</t>
+  </si>
+  <si>
+    <t>next1</t>
+  </si>
+  <si>
+    <t>test16Jun17_142343@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_142501@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_142616@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_142734@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_153050@frescano.se</t>
+  </si>
+  <si>
+    <t>IW4ZWp</t>
+  </si>
+  <si>
+    <t>test16Jun17_153201@frescano.se</t>
+  </si>
+  <si>
+    <t>koChvI</t>
+  </si>
+  <si>
+    <t>test16Jun17_153305@frescano.se</t>
+  </si>
+  <si>
+    <t>GGJ33ZQC</t>
+  </si>
+  <si>
+    <t>test16Jun17_153706@frescano.se</t>
+  </si>
+  <si>
+    <t>80kaVB</t>
+  </si>
+  <si>
+    <t>test16Jun17_154024@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_161508@frescano.se</t>
+  </si>
+  <si>
+    <t>test16Jun17_161620@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_102926@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_103131@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_103249@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_103415@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_111607@frescano.se</t>
+  </si>
+  <si>
+    <t>xjnwQd</t>
+  </si>
+  <si>
+    <t>test19Jun17_111711@frescano.se</t>
+  </si>
+  <si>
+    <t>HrbdlP</t>
+  </si>
+  <si>
+    <t>test19Jun17_111810@frescano.se</t>
+  </si>
+  <si>
+    <t>SMhplb</t>
+  </si>
+  <si>
+    <t>test19Jun17_112346@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_115911@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_120026@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_120153@frescano.se</t>
+  </si>
+  <si>
+    <t>test19Jun17_121717@frescano.se</t>
+  </si>
+  <si>
+    <t>PEBlgH</t>
+  </si>
+  <si>
+    <t>test19Jun17_122356@frescano.se</t>
+  </si>
+  <si>
+    <t>PhbtnU</t>
+  </si>
+  <si>
+    <t>test19Jun17_122501@frescano.se</t>
+  </si>
+  <si>
+    <t>9QbCm7</t>
+  </si>
+  <si>
+    <t>test19Jun17_122603@frescano.se</t>
+  </si>
+  <si>
+    <t>6tPpdq</t>
+  </si>
+  <si>
+    <t>test19Jun17_124047@frescano.se</t>
+  </si>
+  <si>
+    <t>fSI4Vs</t>
+  </si>
+  <si>
+    <t>test19Jun17_124146@frescano.se</t>
+  </si>
+  <si>
+    <t>mTOVUq</t>
+  </si>
+  <si>
+    <t>test19Jun17_124240@frescano.se</t>
+  </si>
+  <si>
+    <t>ED6LjP</t>
+  </si>
+  <si>
+    <t>test19Jun17_131027@frescano.se</t>
+  </si>
+  <si>
+    <t>ziu2Eo</t>
+  </si>
+  <si>
+    <t>TEST_TEST_116432@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_250896@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_255080@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_158430@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_264862@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_301518@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302462@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_286777@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302504@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302511@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_225976@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302546@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300298@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302545@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302561@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302562@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302585@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302649@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302655@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_302667@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_55299@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_55321@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_55386@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_55422@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_57544@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_57569@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_59385@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_62737@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_62774@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_62803@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_62829@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_65222@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_65401@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_67054@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_67059@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_68895@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_304983@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_304993@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_304994@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305008@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305087@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_221922@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305109@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305134@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305184@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305177@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305206@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305227@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_85729@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_5734@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305242@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305285@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305317@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305325@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305347@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_165555@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305369@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305373@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_301853@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_71441@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_305398@test.se</t>
+  </si>
+  <si>
+    <t>nextcamp</t>
+  </si>
+  <si>
+    <t>test20Jun17_114943@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_115123@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_115304@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_122600@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_122723@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_122838@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_122957@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_132620@frescano.se</t>
+  </si>
+  <si>
+    <t>L8Yz2w</t>
+  </si>
+  <si>
+    <t>test20Jun17_132728@frescano.se</t>
+  </si>
+  <si>
+    <t>feZ1gS</t>
+  </si>
+  <si>
+    <t>test20Jun17_132839@frescano.se</t>
+  </si>
+  <si>
+    <t>MMhCXT</t>
+  </si>
+  <si>
+    <t>test20Jun17_133215@frescano.se</t>
+  </si>
+  <si>
+    <t>WoOpwi</t>
+  </si>
+  <si>
+    <t>test20Jun17_133955@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_134114@frescano.se</t>
+  </si>
+  <si>
+    <t>test20Jun17_134230@frescano.se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1414,25 +1655,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1446,10 +1687,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1607,7 +1848,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1616,13 +1857,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1632,7 +1873,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1641,7 +1882,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1650,7 +1891,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1660,12 +1901,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1696,7 +1937,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1715,7 +1956,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1727,10 +1968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1793,38 +2034,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="ExistingEmail!A1" display="ExistingEmail"/>
-    <hyperlink ref="A3" location="SubjectLine!A1" display="SubjectLine"/>
-    <hyperlink ref="A4" location="NonMembers!A1" display="NonMembers"/>
-    <hyperlink ref="A6" location="FreeCampaignMember!A1" display="FreeCampaignMember"/>
-    <hyperlink ref="A8" location="CardUpdated!A1" display="CardUpdated"/>
-    <hyperlink ref="A9" location="ChurnPayingMember!A1" display="ChurnPayingMember"/>
-    <hyperlink ref="A10" location="ForgotPassword!A1" display="ForgotPassword"/>
-    <hyperlink ref="A11" location="GiftcardOrderConfirmation!A1" display="GiftcardOrderConfirmation"/>
-    <hyperlink ref="A5" location="SubsDowngrade!A1" display="SubsDowngrade"/>
-    <hyperlink ref="A7" location="SubsUpgrade!A1" display="SubsUpgrade"/>
-    <hyperlink ref="A1" location="NewEmail!A1" display="NewEmail"/>
+    <hyperlink display="ExistingEmail" location="ExistingEmail!A1" ref="A2"/>
+    <hyperlink display="SubjectLine" location="SubjectLine!A1" ref="A3"/>
+    <hyperlink display="NonMembers" location="NonMembers!A1" ref="A4"/>
+    <hyperlink display="FreeCampaignMember" location="FreeCampaignMember!A1" ref="A6"/>
+    <hyperlink display="CardUpdated" location="CardUpdated!A1" ref="A8"/>
+    <hyperlink display="ChurnPayingMember" location="ChurnPayingMember!A1" ref="A9"/>
+    <hyperlink display="ForgotPassword" location="ForgotPassword!A1" ref="A10"/>
+    <hyperlink display="GiftcardOrderConfirmation" location="GiftcardOrderConfirmation!A1" ref="A11"/>
+    <hyperlink display="SubsDowngrade" location="SubsDowngrade!A1" ref="A5"/>
+    <hyperlink display="SubsUpgrade" location="SubsUpgrade!A1" ref="A7"/>
+    <hyperlink display="NewEmail" location="NewEmail!A1" ref="A1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1835,78 +2076,65 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>427</v>
-      </c>
-    </row>
+        <v>467</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,21 +2150,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="9.140625" style="5" collapsed="1"/>
+    <col min="4" max="7" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,7 +2267,7 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>96</v>
@@ -2062,7 +2290,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>96</v>
@@ -2085,7 +2313,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>96</v>
@@ -2108,7 +2336,7 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>96</v>
@@ -2131,7 +2359,7 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
@@ -2147,13 +2375,63 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -2161,272 +2439,164 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2447,7 +2617,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -2464,7 +2634,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -2481,7 +2651,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
@@ -2498,7 +2668,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
@@ -2515,7 +2685,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -2532,7 +2702,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -2549,7 +2719,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
@@ -2566,7 +2736,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -2583,7 +2753,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -2600,7 +2770,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
@@ -2616,12 +2786,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,14 +2800,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="5" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="4.5703125" collapsed="true"/>
+    <col min="6" max="7" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,7 +2830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>258</v>
       </c>
@@ -2680,7 +2850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>259</v>
       </c>
@@ -2700,7 +2870,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>260</v>
       </c>
@@ -2720,7 +2890,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>261</v>
       </c>
@@ -2740,7 +2910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>262</v>
       </c>
@@ -2760,7 +2930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>263</v>
       </c>
@@ -2780,7 +2950,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>264</v>
       </c>
@@ -2800,7 +2970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>265</v>
       </c>
@@ -2820,7 +2990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>266</v>
       </c>
@@ -2840,7 +3010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -2860,7 +3030,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>268</v>
       </c>
@@ -2880,7 +3050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>269</v>
       </c>
@@ -2900,7 +3070,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>270</v>
       </c>
@@ -2920,7 +3090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>271</v>
       </c>
@@ -2940,7 +3110,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>272</v>
       </c>
@@ -2960,7 +3130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>273</v>
       </c>
@@ -2980,7 +3150,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>274</v>
       </c>
@@ -3000,7 +3170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>275</v>
       </c>
@@ -3020,42 +3190,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="10" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3112,7 +3282,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>411</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3121,7 +3291,10 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F3" t="s">
+        <v>502</v>
       </c>
       <c r="G3" t="s">
         <v>96</v>
@@ -3138,7 +3311,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>410</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3147,7 +3320,10 @@
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>502</v>
       </c>
       <c r="G4" t="s">
         <v>96</v>
@@ -3164,7 +3340,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3173,7 +3349,10 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>502</v>
       </c>
       <c r="G5" t="s">
         <v>96</v>
@@ -3190,85 +3369,58 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>400</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -3280,63 +3432,90 @@
         <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>350</v>
+        <v>509</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" t="s">
-        <v>351</v>
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>349</v>
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" t="s">
-        <v>347</v>
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>344</v>
+        <v>506</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -3345,44 +3524,59 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" t="s">
-        <v>345</v>
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>342</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" t="s">
-        <v>343</v>
+        <v>98</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>341</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
@@ -3399,7 +3593,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>340</v>
+        <v>503</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -3408,10 +3602,7 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>96</v>
@@ -3428,85 +3619,58 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>337</v>
+        <v>435</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F19" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -3515,139 +3679,124 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F20" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>334</v>
+        <v>429</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F22" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>332</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>218</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>330</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>395</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G26" t="s">
         <v>96</v>
@@ -3664,19 +3813,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>186</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G27" t="s">
         <v>96</v>
@@ -3693,7 +3842,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -3705,7 +3854,7 @@
         <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G28" t="s">
         <v>96</v>
@@ -3722,7 +3871,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -3731,24 +3880,15 @@
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F29" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -3757,24 +3897,15 @@
         <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F30" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -3783,24 +3914,15 @@
         <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3826,7 +3948,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3835,15 +3957,24 @@
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F33" t="s">
-        <v>320</v>
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -3852,15 +3983,24 @@
         <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" t="s">
-        <v>318</v>
+        <v>98</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -3869,15 +4009,24 @@
         <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" t="s">
-        <v>316</v>
+        <v>98</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -3889,7 +4038,7 @@
         <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -3906,7 +4055,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -3918,7 +4067,7 @@
         <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -3935,7 +4084,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -3947,7 +4096,7 @@
         <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -3964,148 +4113,136 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
         <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" t="s">
-        <v>306</v>
+        <v>98</v>
+      </c>
+      <c r="G43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>304</v>
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
         <v>96</v>
@@ -4122,19 +4259,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
         <v>96</v>
@@ -4151,68 +4285,47 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" t="s">
-        <v>106</v>
-      </c>
-      <c r="J47" t="s">
-        <v>107</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>98</v>
@@ -4232,13 +4345,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>98</v>
@@ -4258,13 +4371,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>98</v>
@@ -4284,41 +4397,59 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" t="s">
-        <v>289</v>
+        <v>98</v>
+      </c>
+      <c r="G52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
-      </c>
-      <c r="F53" t="s">
-        <v>288</v>
+        <v>98</v>
+      </c>
+      <c r="G53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -4327,24 +4458,36 @@
         <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F54" t="s">
-        <v>287</v>
+        <v>98</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>254</v>
+        <v>384</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F55" t="s">
+        <v>279</v>
       </c>
       <c r="G55" t="s">
         <v>96</v>
@@ -4361,16 +4504,19 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>279</v>
       </c>
       <c r="G56" t="s">
         <v>96</v>
@@ -4387,33 +4533,24 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" t="s">
-        <v>105</v>
-      </c>
-      <c r="I57" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F57" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -4422,7 +4559,10 @@
         <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F58" t="s">
+        <v>279</v>
       </c>
       <c r="G58" t="s">
         <v>96</v>
@@ -4439,33 +4579,24 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" t="s">
-        <v>105</v>
-      </c>
-      <c r="I59" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F59" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -4474,76 +4605,49 @@
         <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" t="s">
-        <v>105</v>
-      </c>
-      <c r="I60" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F60" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>245</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" t="s">
-        <v>96</v>
-      </c>
-      <c r="H61" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F61" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H62" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F62" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -4569,13 +4673,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
         <v>98</v>
@@ -4595,13 +4699,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
         <v>98</v>
@@ -4621,7 +4725,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -4647,13 +4751,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
         <v>98</v>
@@ -4673,7 +4777,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -4699,13 +4803,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
         <v>98</v>
@@ -4725,13 +4829,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
         <v>98</v>
@@ -4751,7 +4855,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -4777,77 +4881,53 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>241</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" t="s">
-        <v>105</v>
-      </c>
-      <c r="I72" t="s">
-        <v>106</v>
-      </c>
-      <c r="J72" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" t="s">
-        <v>105</v>
-      </c>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-      <c r="J73" t="s">
-        <v>107</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
         <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="G74" t="s">
         <v>96</v>
@@ -4864,19 +4944,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
         <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="G75" t="s">
         <v>96</v>
@@ -4893,24 +4973,36 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>244</v>
+        <v>279</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -4922,12 +5014,12 @@
         <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -4939,24 +5031,21 @@
         <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
         <v>96</v>
@@ -4973,19 +5062,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="G80" t="s">
         <v>96</v>
@@ -5002,13 +5088,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
         <v>98</v>
@@ -5028,13 +5114,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>193</v>
+        <v>348</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" t="s">
         <v>98</v>
@@ -5054,13 +5140,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
         <v>98</v>
@@ -5080,126 +5166,162 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
-      </c>
-      <c r="F84" t="s">
-        <v>227</v>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+      <c r="J84" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>183</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
-      </c>
-      <c r="F85" t="s">
-        <v>226</v>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
-      </c>
-      <c r="F86" t="s">
-        <v>225</v>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
-      </c>
-      <c r="F87" t="s">
-        <v>224</v>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
         <v>218</v>
       </c>
       <c r="F88" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
         <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
         <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -5211,70 +5333,46 @@
         <v>218</v>
       </c>
       <c r="F91" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
-      </c>
-      <c r="G92" t="s">
-        <v>96</v>
-      </c>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-      <c r="I92" t="s">
-        <v>106</v>
-      </c>
-      <c r="J92" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
-      </c>
-      <c r="G93" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-      <c r="I93" t="s">
-        <v>106</v>
-      </c>
-      <c r="J93" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -5286,7 +5384,7 @@
         <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="G94" t="s">
         <v>96</v>
@@ -5303,19 +5401,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
         <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="G95" t="s">
         <v>96</v>
@@ -5332,19 +5430,16 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
-      </c>
-      <c r="F96" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="G96" t="s">
         <v>96</v>
@@ -5361,19 +5456,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
-      </c>
-      <c r="F97" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="G97" t="s">
         <v>96</v>
@@ -5390,13 +5482,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>171</v>
+        <v>326</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
         <v>98</v>
@@ -5416,13 +5508,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>170</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
         <v>98</v>
@@ -5442,7 +5534,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>169</v>
+        <v>324</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -5468,19 +5560,16 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
-      </c>
-      <c r="F101" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="G101" t="s">
         <v>96</v>
@@ -5497,100 +5586,70 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F102" t="s">
-        <v>207</v>
-      </c>
-      <c r="G102" t="s">
-        <v>96</v>
-      </c>
-      <c r="H102" t="s">
-        <v>105</v>
-      </c>
-      <c r="I102" t="s">
-        <v>106</v>
-      </c>
-      <c r="J102" t="s">
-        <v>107</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
-      </c>
-      <c r="G103" t="s">
-        <v>96</v>
-      </c>
-      <c r="H103" t="s">
-        <v>105</v>
-      </c>
-      <c r="I103" t="s">
-        <v>106</v>
-      </c>
-      <c r="J103" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" t="s">
-        <v>105</v>
-      </c>
-      <c r="I104" t="s">
-        <v>106</v>
-      </c>
-      <c r="J104" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F104" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F105" t="s">
+        <v>279</v>
       </c>
       <c r="G105" t="s">
         <v>96</v>
@@ -5607,16 +5666,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F106" t="s">
+        <v>279</v>
       </c>
       <c r="G106" t="s">
         <v>96</v>
@@ -5633,19 +5695,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E107" t="s">
         <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="G107" t="s">
         <v>96</v>
@@ -5662,19 +5724,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
-      </c>
-      <c r="F108" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="G108" t="s">
         <v>96</v>
@@ -5691,19 +5750,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
-      </c>
-      <c r="F109" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="G109" t="s">
         <v>96</v>
@@ -5720,7 +5776,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -5729,10 +5785,7 @@
         <v>97</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
-      </c>
-      <c r="F110" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="G110" t="s">
         <v>96</v>
@@ -5749,13 +5802,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E111" t="s">
         <v>98</v>
@@ -5775,59 +5828,41 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
-      </c>
-      <c r="G112" t="s">
-        <v>96</v>
-      </c>
-      <c r="H112" t="s">
-        <v>105</v>
-      </c>
-      <c r="I112" t="s">
-        <v>106</v>
-      </c>
-      <c r="J112" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
-      </c>
-      <c r="G113" t="s">
-        <v>96</v>
-      </c>
-      <c r="H113" t="s">
-        <v>105</v>
-      </c>
-      <c r="I113" t="s">
-        <v>106</v>
-      </c>
-      <c r="J113" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5836,33 +5871,27 @@
         <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
-      </c>
-      <c r="G114" t="s">
-        <v>96</v>
-      </c>
-      <c r="H114" t="s">
-        <v>105</v>
-      </c>
-      <c r="I114" t="s">
-        <v>106</v>
-      </c>
-      <c r="J114" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F115" t="s">
+        <v>279</v>
       </c>
       <c r="G115" t="s">
         <v>96</v>
@@ -5879,16 +5908,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F116" t="s">
+        <v>279</v>
       </c>
       <c r="G116" t="s">
         <v>96</v>
@@ -5905,7 +5937,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -5914,7 +5946,10 @@
         <v>97</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F117" t="s">
+        <v>279</v>
       </c>
       <c r="G117" t="s">
         <v>96</v>
@@ -5931,13 +5966,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E118" t="s">
         <v>98</v>
@@ -5957,13 +5992,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E119" t="s">
         <v>98</v>
@@ -5983,7 +6018,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>143</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -6009,103 +6044,70 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
-      </c>
-      <c r="G121" t="s">
-        <v>96</v>
-      </c>
-      <c r="H121" t="s">
-        <v>105</v>
-      </c>
-      <c r="I121" t="s">
-        <v>106</v>
-      </c>
-      <c r="J121" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F121" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>96</v>
-      </c>
-      <c r="H122" t="s">
-        <v>105</v>
-      </c>
-      <c r="I122" t="s">
-        <v>106</v>
-      </c>
-      <c r="J122" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E123" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
-      </c>
-      <c r="G123" t="s">
-        <v>96</v>
-      </c>
-      <c r="H123" t="s">
-        <v>105</v>
-      </c>
-      <c r="I123" t="s">
-        <v>106</v>
-      </c>
-      <c r="J123" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E124" t="s">
         <v>186</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="G124" t="s">
         <v>96</v>
@@ -6122,36 +6124,36 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E125" t="s">
         <v>186</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J125" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G125" t="s">
+        <v>96</v>
+      </c>
+      <c r="H125" t="s">
+        <v>105</v>
+      </c>
+      <c r="I125" t="s">
+        <v>106</v>
+      </c>
+      <c r="J125" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -6163,50 +6165,59 @@
         <v>186</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J126" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G126" t="s">
+        <v>96</v>
+      </c>
+      <c r="H126" t="s">
+        <v>105</v>
+      </c>
+      <c r="I126" t="s">
+        <v>106</v>
+      </c>
+      <c r="J126" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
+      <c r="D127" t="s">
+        <v>100</v>
+      </c>
       <c r="E127" t="s">
-        <v>186</v>
-      </c>
-      <c r="F127" t="s">
-        <v>146</v>
+        <v>98</v>
+      </c>
+      <c r="G127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127" t="s">
+        <v>105</v>
+      </c>
+      <c r="I127" t="s">
+        <v>106</v>
+      </c>
+      <c r="J127" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>186</v>
-      </c>
-      <c r="F128" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="G128" t="s">
         <v>96</v>
@@ -6223,16 +6234,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E129" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="G129" t="s">
         <v>96</v>
@@ -6249,13 +6260,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E130" t="s">
         <v>98</v>
@@ -6275,33 +6286,24 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
-      </c>
-      <c r="G131" t="s">
-        <v>96</v>
-      </c>
-      <c r="H131" t="s">
-        <v>105</v>
-      </c>
-      <c r="I131" t="s">
-        <v>106</v>
-      </c>
-      <c r="J131" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F131" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -6310,56 +6312,38 @@
         <v>99</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
-      </c>
-      <c r="G132" t="s">
-        <v>96</v>
-      </c>
-      <c r="H132" t="s">
-        <v>105</v>
-      </c>
-      <c r="I132" t="s">
-        <v>106</v>
-      </c>
-      <c r="J132" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F132" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
-      </c>
-      <c r="G133" t="s">
-        <v>96</v>
-      </c>
-      <c r="H133" t="s">
-        <v>105</v>
-      </c>
-      <c r="I133" t="s">
-        <v>106</v>
-      </c>
-      <c r="J133" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F133" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E134" t="s">
         <v>98</v>
@@ -6379,7 +6363,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -6405,13 +6389,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E136" t="s">
         <v>98</v>
@@ -6431,7 +6415,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -6457,13 +6441,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E138" t="s">
         <v>98</v>
@@ -6483,13 +6467,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E139" t="s">
         <v>98</v>
@@ -6509,13 +6493,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E140" t="s">
         <v>98</v>
@@ -6535,13 +6519,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E141" t="s">
         <v>98</v>
@@ -6561,13 +6545,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E142" t="s">
         <v>98</v>
@@ -6587,13 +6571,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E143" t="s">
         <v>98</v>
@@ -6601,25 +6585,25 @@
       <c r="G143" t="s">
         <v>96</v>
       </c>
-      <c r="H143" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J143" s="5" t="s">
+      <c r="H143" t="s">
+        <v>105</v>
+      </c>
+      <c r="I143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J143" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E144" t="s">
         <v>98</v>
@@ -6639,13 +6623,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E145" t="s">
         <v>98</v>
@@ -6665,13 +6649,13 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E146" t="s">
         <v>98</v>
@@ -6691,13 +6675,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E147" t="s">
         <v>98</v>
@@ -6717,13 +6701,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E148" t="s">
         <v>98</v>
@@ -6743,13 +6727,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E149" t="s">
         <v>98</v>
@@ -6769,13 +6753,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E150" t="s">
         <v>98</v>
@@ -6795,16 +6779,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E151" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F151" t="s">
+        <v>241</v>
       </c>
       <c r="G151" t="s">
         <v>96</v>
@@ -6821,7 +6808,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -6830,7 +6817,10 @@
         <v>99</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F152" t="s">
+        <v>240</v>
       </c>
       <c r="G152" t="s">
         <v>96</v>
@@ -6847,25 +6837,28 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E153" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F153" t="s">
+        <v>239</v>
       </c>
       <c r="G153" t="s">
         <v>96</v>
       </c>
       <c r="H153" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I153" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J153" t="s">
         <v>107</v>
@@ -6873,25 +6866,28 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E154" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F154" t="s">
+        <v>238</v>
       </c>
       <c r="G154" t="s">
         <v>96</v>
       </c>
       <c r="H154" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I154" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J154" t="s">
         <v>107</v>
@@ -6899,163 +6895,142 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E155" t="s">
-        <v>98</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I155" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F155" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E156" t="s">
-        <v>98</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F156" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E157" t="s">
-        <v>98</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F157" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J158" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F158" t="s">
+        <v>216</v>
+      </c>
+      <c r="G158" t="s">
+        <v>96</v>
+      </c>
+      <c r="H158" t="s">
+        <v>105</v>
+      </c>
+      <c r="I158" t="s">
+        <v>106</v>
+      </c>
+      <c r="J158" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E159" t="s">
-        <v>98</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J159" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F159" t="s">
+        <v>215</v>
+      </c>
+      <c r="G159" t="s">
+        <v>96</v>
+      </c>
+      <c r="H159" t="s">
+        <v>105</v>
+      </c>
+      <c r="I159" t="s">
+        <v>106</v>
+      </c>
+      <c r="J159" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E160" t="s">
         <v>98</v>
       </c>
-      <c r="G160" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J160" s="5" t="s">
+      <c r="G160" t="s">
+        <v>96</v>
+      </c>
+      <c r="H160" t="s">
+        <v>105</v>
+      </c>
+      <c r="I160" t="s">
+        <v>106</v>
+      </c>
+      <c r="J160" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -7064,24 +7039,24 @@
         <v>99</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J161" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G161" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161" t="s">
+        <v>105</v>
+      </c>
+      <c r="I161" t="s">
+        <v>106</v>
+      </c>
+      <c r="J161" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -7090,24 +7065,24 @@
         <v>97</v>
       </c>
       <c r="E162" t="s">
-        <v>101</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J162" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G162" t="s">
+        <v>96</v>
+      </c>
+      <c r="H162" t="s">
+        <v>105</v>
+      </c>
+      <c r="I162" t="s">
+        <v>106</v>
+      </c>
+      <c r="J162" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -7116,24 +7091,15 @@
         <v>100</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F163" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -7142,24 +7108,15 @@
         <v>99</v>
       </c>
       <c r="E164" t="s">
-        <v>98</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F164" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -7168,76 +7125,49 @@
         <v>97</v>
       </c>
       <c r="E165" t="s">
-        <v>98</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F165" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E166" t="s">
-        <v>101</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F166" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E167" t="s">
-        <v>101</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J167" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F167" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -7246,161 +7176,2233 @@
         <v>97</v>
       </c>
       <c r="E168" t="s">
-        <v>101</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F168" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F169" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I170" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F170" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I171" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J171" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F171" t="s">
+        <v>214</v>
+      </c>
+      <c r="G171" t="s">
+        <v>96</v>
+      </c>
+      <c r="H171" t="s">
+        <v>105</v>
+      </c>
+      <c r="I171" t="s">
+        <v>106</v>
+      </c>
+      <c r="J171" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" t="s">
+        <v>186</v>
+      </c>
+      <c r="F172" t="s">
+        <v>213</v>
+      </c>
+      <c r="G172" t="s">
+        <v>96</v>
+      </c>
+      <c r="H172" t="s">
+        <v>105</v>
+      </c>
+      <c r="I172" t="s">
+        <v>106</v>
+      </c>
+      <c r="J172" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" t="s">
+        <v>186</v>
+      </c>
+      <c r="F173" t="s">
+        <v>212</v>
+      </c>
+      <c r="G173" t="s">
+        <v>96</v>
+      </c>
+      <c r="H173" t="s">
+        <v>105</v>
+      </c>
+      <c r="I173" t="s">
+        <v>106</v>
+      </c>
+      <c r="J173" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>100</v>
+      </c>
+      <c r="E174" t="s">
+        <v>186</v>
+      </c>
+      <c r="F174" t="s">
+        <v>211</v>
+      </c>
+      <c r="G174" t="s">
+        <v>96</v>
+      </c>
+      <c r="H174" t="s">
+        <v>105</v>
+      </c>
+      <c r="I174" t="s">
+        <v>106</v>
+      </c>
+      <c r="J174" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>99</v>
+      </c>
+      <c r="E175" t="s">
+        <v>186</v>
+      </c>
+      <c r="F175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G175" t="s">
+        <v>96</v>
+      </c>
+      <c r="H175" t="s">
+        <v>105</v>
+      </c>
+      <c r="I175" t="s">
+        <v>106</v>
+      </c>
+      <c r="J175" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>97</v>
+      </c>
+      <c r="E176" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" t="s">
+        <v>209</v>
+      </c>
+      <c r="G176" t="s">
+        <v>96</v>
+      </c>
+      <c r="H176" t="s">
+        <v>105</v>
+      </c>
+      <c r="I176" t="s">
+        <v>106</v>
+      </c>
+      <c r="J176" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>171</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>100</v>
+      </c>
+      <c r="E177" t="s">
+        <v>98</v>
+      </c>
+      <c r="G177" t="s">
+        <v>96</v>
+      </c>
+      <c r="H177" t="s">
+        <v>105</v>
+      </c>
+      <c r="I177" t="s">
+        <v>106</v>
+      </c>
+      <c r="J177" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>170</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>99</v>
+      </c>
+      <c r="E178" t="s">
+        <v>98</v>
+      </c>
+      <c r="G178" t="s">
+        <v>96</v>
+      </c>
+      <c r="H178" t="s">
+        <v>105</v>
+      </c>
+      <c r="I178" t="s">
+        <v>106</v>
+      </c>
+      <c r="J178" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>97</v>
+      </c>
+      <c r="E179" t="s">
+        <v>98</v>
+      </c>
+      <c r="G179" t="s">
+        <v>96</v>
+      </c>
+      <c r="H179" t="s">
+        <v>105</v>
+      </c>
+      <c r="I179" t="s">
+        <v>106</v>
+      </c>
+      <c r="J179" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>168</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>100</v>
+      </c>
+      <c r="E180" t="s">
+        <v>186</v>
+      </c>
+      <c r="F180" t="s">
+        <v>208</v>
+      </c>
+      <c r="G180" t="s">
+        <v>96</v>
+      </c>
+      <c r="H180" t="s">
+        <v>105</v>
+      </c>
+      <c r="I180" t="s">
+        <v>106</v>
+      </c>
+      <c r="J180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E181" t="s">
+        <v>186</v>
+      </c>
+      <c r="F181" t="s">
+        <v>207</v>
+      </c>
+      <c r="G181" t="s">
+        <v>96</v>
+      </c>
+      <c r="H181" t="s">
+        <v>105</v>
+      </c>
+      <c r="I181" t="s">
+        <v>106</v>
+      </c>
+      <c r="J181" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>97</v>
+      </c>
+      <c r="E182" t="s">
+        <v>186</v>
+      </c>
+      <c r="F182" t="s">
+        <v>206</v>
+      </c>
+      <c r="G182" t="s">
+        <v>96</v>
+      </c>
+      <c r="H182" t="s">
+        <v>105</v>
+      </c>
+      <c r="I182" t="s">
+        <v>106</v>
+      </c>
+      <c r="J182" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>100</v>
+      </c>
+      <c r="E183" t="s">
+        <v>98</v>
+      </c>
+      <c r="G183" t="s">
+        <v>96</v>
+      </c>
+      <c r="H183" t="s">
+        <v>105</v>
+      </c>
+      <c r="I183" t="s">
+        <v>106</v>
+      </c>
+      <c r="J183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G184" t="s">
+        <v>96</v>
+      </c>
+      <c r="H184" t="s">
+        <v>105</v>
+      </c>
+      <c r="I184" t="s">
+        <v>106</v>
+      </c>
+      <c r="J184" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>163</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>97</v>
+      </c>
+      <c r="E185" t="s">
+        <v>98</v>
+      </c>
+      <c r="G185" t="s">
+        <v>96</v>
+      </c>
+      <c r="H185" t="s">
+        <v>105</v>
+      </c>
+      <c r="I185" t="s">
+        <v>106</v>
+      </c>
+      <c r="J185" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>100</v>
+      </c>
+      <c r="E186" t="s">
+        <v>186</v>
+      </c>
+      <c r="F186" t="s">
+        <v>192</v>
+      </c>
+      <c r="G186" t="s">
+        <v>96</v>
+      </c>
+      <c r="H186" t="s">
+        <v>105</v>
+      </c>
+      <c r="I186" t="s">
+        <v>106</v>
+      </c>
+      <c r="J186" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>99</v>
+      </c>
+      <c r="E187" t="s">
+        <v>186</v>
+      </c>
+      <c r="F187" t="s">
+        <v>191</v>
+      </c>
+      <c r="G187" t="s">
+        <v>96</v>
+      </c>
+      <c r="H187" t="s">
+        <v>105</v>
+      </c>
+      <c r="I187" t="s">
+        <v>106</v>
+      </c>
+      <c r="J187" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>205</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>97</v>
+      </c>
+      <c r="E188" t="s">
+        <v>186</v>
+      </c>
+      <c r="F188" t="s">
+        <v>190</v>
+      </c>
+      <c r="G188" t="s">
+        <v>96</v>
+      </c>
+      <c r="H188" t="s">
+        <v>105</v>
+      </c>
+      <c r="I188" t="s">
+        <v>106</v>
+      </c>
+      <c r="J188" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>161</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>97</v>
+      </c>
+      <c r="E189" t="s">
+        <v>186</v>
+      </c>
+      <c r="F189" t="s">
+        <v>189</v>
+      </c>
+      <c r="G189" t="s">
+        <v>96</v>
+      </c>
+      <c r="H189" t="s">
+        <v>105</v>
+      </c>
+      <c r="I189" t="s">
+        <v>106</v>
+      </c>
+      <c r="J189" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>160</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" t="s">
+        <v>98</v>
+      </c>
+      <c r="G190" t="s">
+        <v>96</v>
+      </c>
+      <c r="H190" t="s">
+        <v>105</v>
+      </c>
+      <c r="I190" t="s">
+        <v>106</v>
+      </c>
+      <c r="J190" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>97</v>
+      </c>
+      <c r="E191" t="s">
+        <v>98</v>
+      </c>
+      <c r="G191" t="s">
+        <v>96</v>
+      </c>
+      <c r="H191" t="s">
+        <v>105</v>
+      </c>
+      <c r="I191" t="s">
+        <v>106</v>
+      </c>
+      <c r="J191" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>97</v>
+      </c>
+      <c r="E192" t="s">
+        <v>98</v>
+      </c>
+      <c r="G192" t="s">
+        <v>96</v>
+      </c>
+      <c r="H192" t="s">
+        <v>105</v>
+      </c>
+      <c r="I192" t="s">
+        <v>106</v>
+      </c>
+      <c r="J192" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>97</v>
+      </c>
+      <c r="E193" t="s">
+        <v>98</v>
+      </c>
+      <c r="G193" t="s">
+        <v>96</v>
+      </c>
+      <c r="H193" t="s">
+        <v>105</v>
+      </c>
+      <c r="I193" t="s">
+        <v>106</v>
+      </c>
+      <c r="J193" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>156</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>97</v>
+      </c>
+      <c r="E194" t="s">
+        <v>98</v>
+      </c>
+      <c r="G194" t="s">
+        <v>96</v>
+      </c>
+      <c r="H194" t="s">
+        <v>105</v>
+      </c>
+      <c r="I194" t="s">
+        <v>106</v>
+      </c>
+      <c r="J194" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>155</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>97</v>
+      </c>
+      <c r="E195" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195" t="s">
+        <v>96</v>
+      </c>
+      <c r="H195" t="s">
+        <v>105</v>
+      </c>
+      <c r="I195" t="s">
+        <v>106</v>
+      </c>
+      <c r="J195" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>154</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>97</v>
+      </c>
+      <c r="E196" t="s">
+        <v>98</v>
+      </c>
+      <c r="G196" t="s">
+        <v>96</v>
+      </c>
+      <c r="H196" t="s">
+        <v>105</v>
+      </c>
+      <c r="I196" t="s">
+        <v>106</v>
+      </c>
+      <c r="J196" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>97</v>
+      </c>
+      <c r="E197" t="s">
+        <v>98</v>
+      </c>
+      <c r="G197" t="s">
+        <v>96</v>
+      </c>
+      <c r="H197" t="s">
+        <v>105</v>
+      </c>
+      <c r="I197" t="s">
+        <v>106</v>
+      </c>
+      <c r="J197" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>144</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>97</v>
+      </c>
+      <c r="E198" t="s">
+        <v>98</v>
+      </c>
+      <c r="G198" t="s">
+        <v>96</v>
+      </c>
+      <c r="H198" t="s">
+        <v>105</v>
+      </c>
+      <c r="I198" t="s">
+        <v>106</v>
+      </c>
+      <c r="J198" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>97</v>
+      </c>
+      <c r="E199" t="s">
+        <v>98</v>
+      </c>
+      <c r="G199" t="s">
+        <v>96</v>
+      </c>
+      <c r="H199" t="s">
+        <v>105</v>
+      </c>
+      <c r="I199" t="s">
+        <v>106</v>
+      </c>
+      <c r="J199" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>142</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>97</v>
+      </c>
+      <c r="E200" t="s">
+        <v>98</v>
+      </c>
+      <c r="G200" t="s">
+        <v>96</v>
+      </c>
+      <c r="H200" t="s">
+        <v>105</v>
+      </c>
+      <c r="I200" t="s">
+        <v>106</v>
+      </c>
+      <c r="J200" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
+        <v>100</v>
+      </c>
+      <c r="E201" t="s">
+        <v>186</v>
+      </c>
+      <c r="F201" t="s">
+        <v>151</v>
+      </c>
+      <c r="G201" t="s">
+        <v>96</v>
+      </c>
+      <c r="H201" t="s">
+        <v>105</v>
+      </c>
+      <c r="I201" t="s">
+        <v>106</v>
+      </c>
+      <c r="J201" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>140</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>99</v>
+      </c>
+      <c r="E202" t="s">
+        <v>186</v>
+      </c>
+      <c r="F202" t="s">
+        <v>150</v>
+      </c>
+      <c r="G202" t="s">
+        <v>96</v>
+      </c>
+      <c r="H202" t="s">
+        <v>105</v>
+      </c>
+      <c r="I202" t="s">
+        <v>106</v>
+      </c>
+      <c r="J202" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>139</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>97</v>
+      </c>
+      <c r="E203" t="s">
+        <v>186</v>
+      </c>
+      <c r="F203" t="s">
+        <v>149</v>
+      </c>
+      <c r="G203" t="s">
+        <v>96</v>
+      </c>
+      <c r="H203" t="s">
+        <v>105</v>
+      </c>
+      <c r="I203" t="s">
+        <v>106</v>
+      </c>
+      <c r="J203" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>77</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>97</v>
+      </c>
+      <c r="E204" t="s">
+        <v>186</v>
+      </c>
+      <c r="F204" t="s">
+        <v>148</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>62</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>97</v>
+      </c>
+      <c r="E205" t="s">
+        <v>186</v>
+      </c>
+      <c r="F205" t="s">
+        <v>147</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>186</v>
+      </c>
+      <c r="F206" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>138</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>97</v>
+      </c>
+      <c r="E207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F207" t="s">
+        <v>145</v>
+      </c>
+      <c r="G207" t="s">
+        <v>96</v>
+      </c>
+      <c r="H207" t="s">
+        <v>105</v>
+      </c>
+      <c r="I207" t="s">
+        <v>106</v>
+      </c>
+      <c r="J207" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>135</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" t="s">
+        <v>186</v>
+      </c>
+      <c r="G208" t="s">
+        <v>96</v>
+      </c>
+      <c r="H208" t="s">
+        <v>105</v>
+      </c>
+      <c r="I208" t="s">
+        <v>106</v>
+      </c>
+      <c r="J208" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>134</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>99</v>
+      </c>
+      <c r="E209" t="s">
+        <v>98</v>
+      </c>
+      <c r="G209" t="s">
+        <v>96</v>
+      </c>
+      <c r="H209" t="s">
+        <v>105</v>
+      </c>
+      <c r="I209" t="s">
+        <v>106</v>
+      </c>
+      <c r="J209" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>97</v>
+      </c>
+      <c r="E210" t="s">
+        <v>98</v>
+      </c>
+      <c r="G210" t="s">
+        <v>96</v>
+      </c>
+      <c r="H210" t="s">
+        <v>105</v>
+      </c>
+      <c r="I210" t="s">
+        <v>106</v>
+      </c>
+      <c r="J210" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>132</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>99</v>
+      </c>
+      <c r="E211" t="s">
+        <v>98</v>
+      </c>
+      <c r="G211" t="s">
+        <v>96</v>
+      </c>
+      <c r="H211" t="s">
+        <v>105</v>
+      </c>
+      <c r="I211" t="s">
+        <v>106</v>
+      </c>
+      <c r="J211" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>131</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>99</v>
+      </c>
+      <c r="E212" t="s">
+        <v>98</v>
+      </c>
+      <c r="G212" t="s">
+        <v>96</v>
+      </c>
+      <c r="H212" t="s">
+        <v>105</v>
+      </c>
+      <c r="I212" t="s">
+        <v>106</v>
+      </c>
+      <c r="J212" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>130</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>99</v>
+      </c>
+      <c r="E213" t="s">
+        <v>98</v>
+      </c>
+      <c r="G213" t="s">
+        <v>96</v>
+      </c>
+      <c r="H213" t="s">
+        <v>105</v>
+      </c>
+      <c r="I213" t="s">
+        <v>106</v>
+      </c>
+      <c r="J213" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>99</v>
+      </c>
+      <c r="E214" t="s">
+        <v>98</v>
+      </c>
+      <c r="G214" t="s">
+        <v>96</v>
+      </c>
+      <c r="H214" t="s">
+        <v>105</v>
+      </c>
+      <c r="I214" t="s">
+        <v>106</v>
+      </c>
+      <c r="J214" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>128</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>99</v>
+      </c>
+      <c r="E215" t="s">
+        <v>98</v>
+      </c>
+      <c r="G215" t="s">
+        <v>96</v>
+      </c>
+      <c r="H215" t="s">
+        <v>105</v>
+      </c>
+      <c r="I215" t="s">
+        <v>106</v>
+      </c>
+      <c r="J215" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>127</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>100</v>
+      </c>
+      <c r="E216" t="s">
+        <v>98</v>
+      </c>
+      <c r="G216" t="s">
+        <v>96</v>
+      </c>
+      <c r="H216" t="s">
+        <v>105</v>
+      </c>
+      <c r="I216" t="s">
+        <v>106</v>
+      </c>
+      <c r="J216" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>126</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>99</v>
+      </c>
+      <c r="E217" t="s">
+        <v>98</v>
+      </c>
+      <c r="G217" t="s">
+        <v>96</v>
+      </c>
+      <c r="H217" t="s">
+        <v>105</v>
+      </c>
+      <c r="I217" t="s">
+        <v>106</v>
+      </c>
+      <c r="J217" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>97</v>
+      </c>
+      <c r="E218" t="s">
+        <v>98</v>
+      </c>
+      <c r="G218" t="s">
+        <v>96</v>
+      </c>
+      <c r="H218" t="s">
+        <v>105</v>
+      </c>
+      <c r="I218" t="s">
+        <v>106</v>
+      </c>
+      <c r="J218" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>97</v>
+      </c>
+      <c r="E219" t="s">
+        <v>98</v>
+      </c>
+      <c r="G219" t="s">
+        <v>96</v>
+      </c>
+      <c r="H219" t="s">
+        <v>105</v>
+      </c>
+      <c r="I219" t="s">
+        <v>106</v>
+      </c>
+      <c r="J219" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>123</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>99</v>
+      </c>
+      <c r="E220" t="s">
+        <v>98</v>
+      </c>
+      <c r="G220" t="s">
+        <v>96</v>
+      </c>
+      <c r="H220" t="s">
+        <v>105</v>
+      </c>
+      <c r="I220" t="s">
+        <v>106</v>
+      </c>
+      <c r="J220" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>122</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>99</v>
+      </c>
+      <c r="E221" t="s">
+        <v>98</v>
+      </c>
+      <c r="G221" t="s">
+        <v>96</v>
+      </c>
+      <c r="H221" t="s">
+        <v>105</v>
+      </c>
+      <c r="I221" t="s">
+        <v>106</v>
+      </c>
+      <c r="J221" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>121</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>99</v>
+      </c>
+      <c r="E222" t="s">
+        <v>98</v>
+      </c>
+      <c r="G222" t="s">
+        <v>96</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>99</v>
+      </c>
+      <c r="E223" t="s">
+        <v>98</v>
+      </c>
+      <c r="G223" t="s">
+        <v>96</v>
+      </c>
+      <c r="H223" t="s">
+        <v>105</v>
+      </c>
+      <c r="I223" t="s">
+        <v>106</v>
+      </c>
+      <c r="J223" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>99</v>
+      </c>
+      <c r="E224" t="s">
+        <v>98</v>
+      </c>
+      <c r="G224" t="s">
+        <v>96</v>
+      </c>
+      <c r="H224" t="s">
+        <v>105</v>
+      </c>
+      <c r="I224" t="s">
+        <v>106</v>
+      </c>
+      <c r="J224" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>99</v>
+      </c>
+      <c r="E225" t="s">
+        <v>98</v>
+      </c>
+      <c r="G225" t="s">
+        <v>96</v>
+      </c>
+      <c r="H225" t="s">
+        <v>105</v>
+      </c>
+      <c r="I225" t="s">
+        <v>106</v>
+      </c>
+      <c r="J225" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>99</v>
+      </c>
+      <c r="E226" t="s">
+        <v>98</v>
+      </c>
+      <c r="G226" t="s">
+        <v>96</v>
+      </c>
+      <c r="H226" t="s">
+        <v>105</v>
+      </c>
+      <c r="I226" t="s">
+        <v>106</v>
+      </c>
+      <c r="J226" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>116</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>99</v>
+      </c>
+      <c r="E227" t="s">
+        <v>98</v>
+      </c>
+      <c r="G227" t="s">
+        <v>96</v>
+      </c>
+      <c r="H227" t="s">
+        <v>105</v>
+      </c>
+      <c r="I227" t="s">
+        <v>106</v>
+      </c>
+      <c r="J227" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>115</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>99</v>
+      </c>
+      <c r="E228" t="s">
+        <v>98</v>
+      </c>
+      <c r="G228" t="s">
+        <v>96</v>
+      </c>
+      <c r="H228" t="s">
+        <v>105</v>
+      </c>
+      <c r="I228" t="s">
+        <v>106</v>
+      </c>
+      <c r="J228" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>99</v>
+      </c>
+      <c r="E229" t="s">
+        <v>98</v>
+      </c>
+      <c r="G229" t="s">
+        <v>96</v>
+      </c>
+      <c r="H229" t="s">
+        <v>105</v>
+      </c>
+      <c r="I229" t="s">
+        <v>106</v>
+      </c>
+      <c r="J229" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>84</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>99</v>
+      </c>
+      <c r="E230" t="s">
+        <v>98</v>
+      </c>
+      <c r="G230" t="s">
+        <v>96</v>
+      </c>
+      <c r="H230" t="s">
+        <v>105</v>
+      </c>
+      <c r="I230" t="s">
+        <v>106</v>
+      </c>
+      <c r="J230" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>99</v>
+      </c>
+      <c r="E231" t="s">
+        <v>98</v>
+      </c>
+      <c r="G231" t="s">
+        <v>96</v>
+      </c>
+      <c r="H231" t="s">
+        <v>105</v>
+      </c>
+      <c r="I231" t="s">
+        <v>106</v>
+      </c>
+      <c r="J231" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>82</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>99</v>
+      </c>
+      <c r="E232" t="s">
+        <v>98</v>
+      </c>
+      <c r="G232" t="s">
+        <v>96</v>
+      </c>
+      <c r="H232" t="s">
+        <v>110</v>
+      </c>
+      <c r="I232" t="s">
+        <v>111</v>
+      </c>
+      <c r="J232" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>81</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>99</v>
+      </c>
+      <c r="E233" t="s">
+        <v>98</v>
+      </c>
+      <c r="G233" t="s">
+        <v>96</v>
+      </c>
+      <c r="H233" t="s">
+        <v>110</v>
+      </c>
+      <c r="I233" t="s">
+        <v>111</v>
+      </c>
+      <c r="J233" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>80</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>97</v>
+      </c>
+      <c r="E234" t="s">
+        <v>98</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>79</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>100</v>
+      </c>
+      <c r="E235" t="s">
+        <v>98</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>78</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>99</v>
+      </c>
+      <c r="E236" t="s">
+        <v>98</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>76</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>100</v>
+      </c>
+      <c r="E237" t="s">
+        <v>98</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>75</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>99</v>
+      </c>
+      <c r="E238" t="s">
+        <v>98</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>74</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+      <c r="E239" t="s">
+        <v>98</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>73</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>99</v>
+      </c>
+      <c r="E240" t="s">
+        <v>101</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>97</v>
+      </c>
+      <c r="E241" t="s">
+        <v>101</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>71</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>100</v>
+      </c>
+      <c r="E242" t="s">
+        <v>101</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>99</v>
+      </c>
+      <c r="E243" t="s">
+        <v>98</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>97</v>
+      </c>
+      <c r="E244" t="s">
+        <v>98</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>68</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>97</v>
+      </c>
+      <c r="E245" t="s">
+        <v>101</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>67</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" t="s">
+        <v>101</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>66</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>97</v>
+      </c>
+      <c r="E247" t="s">
+        <v>101</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>100</v>
+      </c>
+      <c r="E248" t="s">
+        <v>98</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>64</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>99</v>
+      </c>
+      <c r="E249" t="s">
+        <v>98</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>63</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>97</v>
+      </c>
+      <c r="E250" t="s">
+        <v>98</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>61</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>60</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>45</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
         <v>42</v>
       </c>
-      <c r="C176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="4" t="s">
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C177" t="s">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s">
-        <v>97</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>97</v>
+      </c>
+      <c r="E256" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7409,11 +9411,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7534,23 +9536,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="19.140625" collapsed="true"/>
+    <col min="3" max="5" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7570,9 +9572,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -7587,168 +9589,45 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="5">
-        <v>737</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="5">
-        <v>737</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="5">
-        <v>737</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="5">
-        <v>737</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="5">
-        <v>737</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="5">
-        <v>737</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="5">
-        <v>737</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="5">
-        <v>737</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="5">
-        <v>737</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
+    <row customFormat="1" r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row customFormat="1" r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row customFormat="1" r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row customFormat="1" r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row customFormat="1" r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -7756,7 +9635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7772,90 +9651,55 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -7865,7 +9709,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>290</v>
+        <v>502</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -7890,13 +9734,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7905,8 +9749,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8011,25 +9855,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -8048,7 +9892,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -8065,7 +9909,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -8082,7 +9926,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
@@ -8099,7 +9943,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
@@ -8116,7 +9960,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -8133,7 +9977,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -8150,7 +9994,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>457</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
@@ -8167,7 +10011,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -8184,7 +10028,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -8201,7 +10045,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
@@ -8217,9 +10061,6 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>286</v>
-      </c>
       <c r="B12" t="s">
         <v>96</v>
       </c>
@@ -8248,7 +10089,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -2,35 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="5" tabRatio="782" windowHeight="6555" windowWidth="15105" xWindow="0" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14520" windowHeight="6555" tabRatio="782" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheets" r:id="rId1" sheetId="8"/>
-    <sheet name="NewEmail" r:id="rId2" sheetId="6"/>
-    <sheet name="ExistingEmail" r:id="rId3" sheetId="1"/>
-    <sheet name="SubjectLine" r:id="rId4" sheetId="2"/>
-    <sheet name="NonMembers" r:id="rId5" sheetId="3"/>
-    <sheet name="SubsUpgrade" r:id="rId6" sheetId="9"/>
-    <sheet name="CampaignCodes" r:id="rId7" sheetId="5"/>
-    <sheet name="trial" r:id="rId8" sheetId="7"/>
-    <sheet name="CardUpdated" r:id="rId9" sheetId="10"/>
-    <sheet name="ChurnPayingMember" r:id="rId10" sheetId="11"/>
-    <sheet name="ForgotPassword" r:id="rId11" sheetId="12"/>
-    <sheet name="GiftcardOrderConfirmation" r:id="rId12" sheetId="13"/>
-    <sheet name="SubsDowngrade" r:id="rId13" sheetId="14"/>
-    <sheet name="ChurnFreeTrialCampaign" r:id="rId14" sheetId="15"/>
-    <sheet name="MemberPaying" r:id="rId15" sheetId="16"/>
-    <sheet name="PurchaseGiftCard" r:id="rId16" sheetId="17"/>
+    <sheet name="Sheets" sheetId="8" r:id="rId1"/>
+    <sheet name="NewEmail" sheetId="6" r:id="rId2"/>
+    <sheet name="ExistingEmail" sheetId="1" r:id="rId3"/>
+    <sheet name="SubjectLine" sheetId="2" r:id="rId4"/>
+    <sheet name="NonMembers" sheetId="3" r:id="rId5"/>
+    <sheet name="SubsUpgrade" sheetId="9" r:id="rId6"/>
+    <sheet name="CampaignCodes" sheetId="5" r:id="rId7"/>
+    <sheet name="trial" sheetId="7" r:id="rId8"/>
+    <sheet name="CardUpdated" sheetId="10" r:id="rId9"/>
+    <sheet name="ChurnPayingMember" sheetId="11" r:id="rId10"/>
+    <sheet name="ForgotPassword" sheetId="12" r:id="rId11"/>
+    <sheet name="GiftcardOrderConfirmation" sheetId="13" r:id="rId12"/>
+    <sheet name="SubsDowngrade" sheetId="14" r:id="rId13"/>
+    <sheet name="ChurnFreeTrialCampaign" sheetId="15" r:id="rId14"/>
+    <sheet name="MemberPaying" sheetId="16" r:id="rId15"/>
+    <sheet name="PurchaseGiftCard" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="574">
   <si>
     <t>email</t>
   </si>
@@ -1355,189 +1355,6 @@
     <t>ziu2Eo</t>
   </si>
   <si>
-    <t>TEST_TEST_116432@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_250896@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_255080@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_158430@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_264862@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_301518@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302462@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_286777@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302504@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302511@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_225976@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302546@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_300298@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302545@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302561@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302562@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302585@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302649@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302655@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_302667@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_55299@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_55321@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_55386@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_55422@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_57544@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_57569@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_59385@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_62737@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_62774@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_62803@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_62829@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_65222@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_65401@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_67054@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_67059@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_68895@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_304983@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_304993@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_304994@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305008@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305087@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_221922@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305109@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305134@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305184@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305177@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305206@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305227@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_85729@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_5734@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305242@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305285@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305317@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305325@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305347@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_165555@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305369@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305373@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_301853@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_71441@test.se</t>
-  </si>
-  <si>
-    <t>TEST_TEST_305398@test.se</t>
-  </si>
-  <si>
     <t>nextcamp</t>
   </si>
   <si>
@@ -1593,13 +1410,354 @@
   </si>
   <si>
     <t>test20Jun17_134230@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jun17_114638@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jun17_114833@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jun17_114946@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_114645@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_114815@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_114931@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_123028@frescano.se</t>
+  </si>
+  <si>
+    <t>DF07Al</t>
+  </si>
+  <si>
+    <t>test21Jul17_123135@frescano.se</t>
+  </si>
+  <si>
+    <t>xVQN5i</t>
+  </si>
+  <si>
+    <t>test21Jul17_123241@frescano.se</t>
+  </si>
+  <si>
+    <t>6q9svS</t>
+  </si>
+  <si>
+    <t>test21Jul17_123756@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_123919@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_124102@frescano.se</t>
+  </si>
+  <si>
+    <t>test21Jul17_145953@frescano.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_322089@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_322120@test.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_111228@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_112145@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_112333@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_112446@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_120633@frescano.se</t>
+  </si>
+  <si>
+    <t>hrlc9p</t>
+  </si>
+  <si>
+    <t>test24Jul17_120729@frescano.se</t>
+  </si>
+  <si>
+    <t>HoKRDz</t>
+  </si>
+  <si>
+    <t>test24Jul17_121034@frescano.se</t>
+  </si>
+  <si>
+    <t>NU1IXB</t>
+  </si>
+  <si>
+    <t>test24Jul17_121307@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_121422@frescano.se</t>
+  </si>
+  <si>
+    <t>test24Jul17_121532@frescano.se</t>
+  </si>
+  <si>
+    <t>bnvvbcc@test.se</t>
+  </si>
+  <si>
+    <t>My233@test.se</t>
+  </si>
+  <si>
+    <t>dinesh_trtr@frescano.se</t>
+  </si>
+  <si>
+    <t>kjsdfkjh2whdakjsz@jdf.se</t>
+  </si>
+  <si>
+    <t>dinesh_cmd@dhsjd.se</t>
+  </si>
+  <si>
+    <t>My236@test.se</t>
+  </si>
+  <si>
+    <t>My237@test.se</t>
+  </si>
+  <si>
+    <t>My238@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_328975@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_328977@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_328998@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_322543@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_329006@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_329015@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_329013@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_328940@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_28868@test.see</t>
+  </si>
+  <si>
+    <t>TEST_TEST_96602@test.see</t>
+  </si>
+  <si>
+    <t>sdfsdf@dsfsdg.se</t>
+  </si>
+  <si>
+    <t>jhgsdjdg@test.se</t>
+  </si>
+  <si>
+    <t>XZC30DAP@test.see</t>
+  </si>
+  <si>
+    <t>test_cretio02@frescano.se</t>
+  </si>
+  <si>
+    <t>dinesh.d@frescano.se</t>
+  </si>
+  <si>
+    <t>D_test@frescano.se</t>
+  </si>
+  <si>
+    <t>dineshV_001@t.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282106@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282111@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282161@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282184@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282212@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282226@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_282529@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_291880@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_296634@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_297233@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_299528@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300409@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300447@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300492@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300535@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300546@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300577@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_300634@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325021@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325027@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325052@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325061@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325081@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325091@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325096@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325101@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325111@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_110075@test.se</t>
+  </si>
+  <si>
+    <t>TEST_TEST_325126@test.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_130016@frescano.se</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>test01Sep17_130126@frescano.se</t>
+  </si>
+  <si>
+    <t>Guld</t>
+  </si>
+  <si>
+    <t>test01Sep17_130312@frescano.se</t>
+  </si>
+  <si>
+    <t>Familj</t>
+  </si>
+  <si>
+    <t>test01Sep17_163023@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_163146@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_163247@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_164235@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_164347@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_164445@frescano.se</t>
+  </si>
+  <si>
+    <t>test01Sep17_164554@frescano.se</t>
+  </si>
+  <si>
+    <t>test_402315@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_415491@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_409390@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_430324@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_425715@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429515@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429540@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429478@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429566@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_420974@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429589@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429591@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429592@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429558@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_429615@test-frescano.se</t>
+  </si>
+  <si>
+    <t>test_375002@test-frescano.se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1655,25 +1813,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1687,10 +1845,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1848,7 +2006,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1857,13 +2015,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1873,7 +2031,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1882,7 +2040,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1891,7 +2049,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1901,12 +2059,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1937,7 +2095,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1956,7 +2114,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1968,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,38 +2192,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="ExistingEmail" location="ExistingEmail!A1" ref="A2"/>
-    <hyperlink display="SubjectLine" location="SubjectLine!A1" ref="A3"/>
-    <hyperlink display="NonMembers" location="NonMembers!A1" ref="A4"/>
-    <hyperlink display="FreeCampaignMember" location="FreeCampaignMember!A1" ref="A6"/>
-    <hyperlink display="CardUpdated" location="CardUpdated!A1" ref="A8"/>
-    <hyperlink display="ChurnPayingMember" location="ChurnPayingMember!A1" ref="A9"/>
-    <hyperlink display="ForgotPassword" location="ForgotPassword!A1" ref="A10"/>
-    <hyperlink display="GiftcardOrderConfirmation" location="GiftcardOrderConfirmation!A1" ref="A11"/>
-    <hyperlink display="SubsDowngrade" location="SubsDowngrade!A1" ref="A5"/>
-    <hyperlink display="SubsUpgrade" location="SubsUpgrade!A1" ref="A7"/>
-    <hyperlink display="NewEmail" location="NewEmail!A1" ref="A1"/>
+    <hyperlink ref="A2" location="ExistingEmail!A1" display="ExistingEmail"/>
+    <hyperlink ref="A3" location="SubjectLine!A1" display="SubjectLine"/>
+    <hyperlink ref="A4" location="NonMembers!A1" display="NonMembers"/>
+    <hyperlink ref="A6" location="FreeCampaignMember!A1" display="FreeCampaignMember"/>
+    <hyperlink ref="A8" location="CardUpdated!A1" display="CardUpdated"/>
+    <hyperlink ref="A9" location="ChurnPayingMember!A1" display="ChurnPayingMember"/>
+    <hyperlink ref="A10" location="ForgotPassword!A1" display="ForgotPassword"/>
+    <hyperlink ref="A11" location="GiftcardOrderConfirmation!A1" display="GiftcardOrderConfirmation"/>
+    <hyperlink ref="A5" location="SubsDowngrade!A1" display="SubsDowngrade"/>
+    <hyperlink ref="A7" location="SubsUpgrade!A1" display="SubsUpgrade"/>
+    <hyperlink ref="A1" location="NewEmail!A1" display="NewEmail"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -2076,61 +2234,59 @@
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="12" spans="1:3" x14ac:dyDescent="0.25"/>
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2150,21 +2306,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" style="5" width="9.140625" collapsed="true"/>
+    <col min="4" max="7" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,21 +2531,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,46 +2561,86 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2455,147 +2651,147 @@
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,9 +2811,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -2632,9 +2828,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -2651,7 +2847,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
@@ -2668,7 +2864,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
@@ -2685,7 +2881,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -2702,7 +2898,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -2719,7 +2915,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
@@ -2736,7 +2932,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -2753,7 +2949,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -2768,30 +2964,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="5">
-        <v>737</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,14 +2979,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="4.5703125" collapsed="true"/>
-    <col min="6" max="7" style="5" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2830,7 +3009,7 @@
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>258</v>
       </c>
@@ -2850,7 +3029,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>259</v>
       </c>
@@ -2870,7 +3049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>260</v>
       </c>
@@ -2890,7 +3069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>261</v>
       </c>
@@ -2910,7 +3089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>262</v>
       </c>
@@ -2930,7 +3109,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>263</v>
       </c>
@@ -2950,7 +3129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>264</v>
       </c>
@@ -2970,7 +3149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>265</v>
       </c>
@@ -2990,7 +3169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>266</v>
       </c>
@@ -3010,7 +3189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -3030,7 +3209,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>268</v>
       </c>
@@ -3050,7 +3229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>269</v>
       </c>
@@ -3070,7 +3249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>270</v>
       </c>
@@ -3090,7 +3269,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>271</v>
       </c>
@@ -3110,7 +3289,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>272</v>
       </c>
@@ -3130,7 +3309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>273</v>
       </c>
@@ -3150,7 +3329,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>274</v>
       </c>
@@ -3170,7 +3349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>275</v>
       </c>
@@ -3190,25 +3369,25 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row customFormat="1" r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -3216,16 +3395,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="10" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3282,19 +3461,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" t="s">
-        <v>502</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>96</v>
@@ -3311,19 +3487,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>550</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" t="s">
-        <v>502</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
         <v>96</v>
@@ -3340,19 +3513,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" t="s">
-        <v>502</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>96</v>
@@ -3369,81 +3539,117 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>546</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" t="s">
-        <v>517</v>
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" t="s">
-        <v>515</v>
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>548</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" t="s">
-        <v>513</v>
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>546</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" t="s">
-        <v>511</v>
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>550</v>
       </c>
       <c r="E10" t="s">
         <v>98</v>
@@ -3463,13 +3669,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>548</v>
       </c>
       <c r="E11" t="s">
         <v>98</v>
@@ -3489,13 +3695,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
         <v>98</v>
@@ -3515,16 +3721,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F13" t="s">
+        <v>441</v>
       </c>
       <c r="G13" t="s">
         <v>96</v>
@@ -3541,16 +3750,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>441</v>
       </c>
       <c r="G14" t="s">
         <v>96</v>
@@ -3567,16 +3779,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F15" t="s">
+        <v>441</v>
       </c>
       <c r="G15" t="s">
         <v>96</v>
@@ -3593,7 +3808,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -3602,126 +3817,153 @@
         <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F16" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
         <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" t="s">
-        <v>436</v>
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" t="s">
-        <v>434</v>
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" t="s">
-        <v>432</v>
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" t="s">
-        <v>430</v>
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -3730,15 +3972,24 @@
         <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" t="s">
-        <v>428</v>
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -3747,27 +3998,39 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>441</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G25" t="s">
         <v>96</v>
@@ -3784,19 +4047,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G26" t="s">
         <v>96</v>
@@ -3813,116 +4076,110 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>395</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" t="s">
-        <v>107</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F28" t="s">
-        <v>395</v>
-      </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28" t="s">
-        <v>107</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" t="s">
-        <v>418</v>
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" t="s">
-        <v>416</v>
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -3948,7 +4205,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -3974,7 +4231,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -4000,7 +4257,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -4026,7 +4283,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -4038,7 +4295,7 @@
         <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G36" t="s">
         <v>96</v>
@@ -4055,7 +4312,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -4067,7 +4324,7 @@
         <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G37" t="s">
         <v>96</v>
@@ -4084,7 +4341,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -4096,7 +4353,7 @@
         <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G38" t="s">
         <v>96</v>
@@ -4113,7 +4370,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -4125,12 +4382,12 @@
         <v>218</v>
       </c>
       <c r="F39" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -4142,12 +4399,12 @@
         <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -4159,12 +4416,12 @@
         <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -4176,12 +4433,12 @@
         <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -4207,7 +4464,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -4233,7 +4490,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -4259,7 +4516,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -4285,7 +4542,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -4294,32 +4551,50 @@
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" t="s">
-        <v>394</v>
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" t="s">
-        <v>392</v>
+        <v>98</v>
+      </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -4345,85 +4620,58 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" t="s">
-        <v>106</v>
-      </c>
-      <c r="J50" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -4432,50 +4680,32 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -4484,27 +4714,15 @@
         <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F55" t="s">
-        <v>279</v>
-      </c>
-      <c r="G55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -4513,44 +4731,32 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" t="s">
-        <v>105</v>
-      </c>
-      <c r="I56" t="s">
-        <v>106</v>
-      </c>
-      <c r="J56" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
         <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -4562,7 +4768,7 @@
         <v>186</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>395</v>
       </c>
       <c r="G58" t="s">
         <v>96</v>
@@ -4579,127 +4785,145 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>379</v>
+        <v>395</v>
+      </c>
+      <c r="G59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
+        <v>395</v>
+      </c>
+      <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>375</v>
+        <v>395</v>
+      </c>
+      <c r="G61" t="s">
+        <v>96</v>
+      </c>
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
         <v>218</v>
       </c>
       <c r="F62" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H63" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" t="s">
-        <v>96</v>
-      </c>
-      <c r="H64" t="s">
-        <v>105</v>
-      </c>
-      <c r="I64" t="s">
-        <v>106</v>
-      </c>
-      <c r="J64" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -4725,7 +4949,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -4751,7 +4975,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -4777,7 +5001,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -4803,7 +5027,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -4812,7 +5036,10 @@
         <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F69" t="s">
+        <v>395</v>
       </c>
       <c r="G69" t="s">
         <v>96</v>
@@ -4829,7 +5056,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -4838,7 +5065,10 @@
         <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F70" t="s">
+        <v>395</v>
       </c>
       <c r="G70" t="s">
         <v>96</v>
@@ -4855,7 +5085,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -4864,7 +5094,10 @@
         <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F71" t="s">
+        <v>395</v>
       </c>
       <c r="G71" t="s">
         <v>96</v>
@@ -4881,7 +5114,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -4893,12 +5126,12 @@
         <v>218</v>
       </c>
       <c r="F72" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -4910,70 +5143,46 @@
         <v>218</v>
       </c>
       <c r="F73" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-      <c r="J74" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>279</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
-      <c r="H75" t="s">
-        <v>105</v>
-      </c>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-      <c r="J75" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -4982,10 +5191,7 @@
         <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
-      </c>
-      <c r="F76" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
         <v>96</v>
@@ -5002,47 +5208,65 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" t="s">
-        <v>355</v>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>96</v>
+      </c>
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" t="s">
-        <v>353</v>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
         <v>98</v>
@@ -5062,33 +5286,24 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" t="s">
-        <v>105</v>
-      </c>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
-      <c r="J80" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F80" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -5097,30 +5312,21 @@
         <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>96</v>
-      </c>
-      <c r="H81" t="s">
-        <v>105</v>
-      </c>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F81" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
         <v>98</v>
@@ -5140,13 +5346,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" t="s">
         <v>98</v>
@@ -5166,13 +5372,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
         <v>98</v>
@@ -5192,13 +5398,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
         <v>98</v>
@@ -5218,13 +5424,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
         <v>98</v>
@@ -5244,7 +5450,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -5270,41 +5476,65 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F88" t="s">
-        <v>342</v>
+        <v>279</v>
+      </c>
+      <c r="G88" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>106</v>
+      </c>
+      <c r="J88" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F89" t="s">
-        <v>340</v>
+        <v>279</v>
+      </c>
+      <c r="G89" t="s">
+        <v>96</v>
+      </c>
+      <c r="H89" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -5316,29 +5546,41 @@
         <v>218</v>
       </c>
       <c r="F90" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F91" t="s">
-        <v>336</v>
+        <v>279</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -5350,58 +5592,46 @@
         <v>218</v>
       </c>
       <c r="F92" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
         <v>218</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F94" t="s">
-        <v>279</v>
-      </c>
-      <c r="G94" t="s">
-        <v>96</v>
-      </c>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-      <c r="I94" t="s">
-        <v>106</v>
-      </c>
-      <c r="J94" t="s">
-        <v>107</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -5410,27 +5640,15 @@
         <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
-      </c>
-      <c r="G95" t="s">
-        <v>96</v>
-      </c>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>106</v>
-      </c>
-      <c r="J95" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -5456,7 +5674,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -5482,7 +5700,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -5508,13 +5726,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
         <v>98</v>
@@ -5534,13 +5752,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
@@ -5560,7 +5778,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -5586,7 +5804,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -5595,15 +5813,24 @@
         <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>218</v>
-      </c>
-      <c r="F102" t="s">
-        <v>322</v>
+        <v>98</v>
+      </c>
+      <c r="G102" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" t="s">
+        <v>105</v>
+      </c>
+      <c r="I102" t="s">
+        <v>106</v>
+      </c>
+      <c r="J102" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -5612,15 +5839,24 @@
         <v>99</v>
       </c>
       <c r="E103" t="s">
-        <v>218</v>
-      </c>
-      <c r="F103" t="s">
-        <v>320</v>
+        <v>98</v>
+      </c>
+      <c r="G103" t="s">
+        <v>96</v>
+      </c>
+      <c r="H103" t="s">
+        <v>105</v>
+      </c>
+      <c r="I103" t="s">
+        <v>106</v>
+      </c>
+      <c r="J103" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -5629,79 +5865,64 @@
         <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>218</v>
-      </c>
-      <c r="F104" t="s">
-        <v>318</v>
+        <v>98</v>
+      </c>
+      <c r="G104" t="s">
+        <v>96</v>
+      </c>
+      <c r="H104" t="s">
+        <v>105</v>
+      </c>
+      <c r="I104" t="s">
+        <v>106</v>
+      </c>
+      <c r="J104" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F105" t="s">
-        <v>279</v>
-      </c>
-      <c r="G105" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" t="s">
-        <v>105</v>
-      </c>
-      <c r="I105" t="s">
-        <v>106</v>
-      </c>
-      <c r="J105" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F106" t="s">
-        <v>279</v>
-      </c>
-      <c r="G106" t="s">
-        <v>96</v>
-      </c>
-      <c r="H106" t="s">
-        <v>105</v>
-      </c>
-      <c r="I106" t="s">
-        <v>106</v>
-      </c>
-      <c r="J106" t="s">
-        <v>107</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
         <v>186</v>
@@ -5724,16 +5945,19 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F108" t="s">
+        <v>279</v>
       </c>
       <c r="G108" t="s">
         <v>96</v>
@@ -5750,16 +5974,19 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F109" t="s">
+        <v>279</v>
       </c>
       <c r="G109" t="s">
         <v>96</v>
@@ -5776,33 +6003,24 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
-      </c>
-      <c r="G110" t="s">
-        <v>96</v>
-      </c>
-      <c r="H110" t="s">
-        <v>105</v>
-      </c>
-      <c r="I110" t="s">
-        <v>106</v>
-      </c>
-      <c r="J110" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -5811,24 +6029,15 @@
         <v>97</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
-      </c>
-      <c r="G111" t="s">
-        <v>96</v>
-      </c>
-      <c r="H111" t="s">
-        <v>105</v>
-      </c>
-      <c r="I111" t="s">
-        <v>106</v>
-      </c>
-      <c r="J111" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -5837,15 +6046,24 @@
         <v>100</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
-      </c>
-      <c r="F112" t="s">
-        <v>309</v>
+        <v>98</v>
+      </c>
+      <c r="G112" t="s">
+        <v>96</v>
+      </c>
+      <c r="H112" t="s">
+        <v>105</v>
+      </c>
+      <c r="I112" t="s">
+        <v>106</v>
+      </c>
+      <c r="J112" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -5854,15 +6072,24 @@
         <v>99</v>
       </c>
       <c r="E113" t="s">
-        <v>218</v>
-      </c>
-      <c r="F113" t="s">
-        <v>307</v>
+        <v>98</v>
+      </c>
+      <c r="G113" t="s">
+        <v>96</v>
+      </c>
+      <c r="H113" t="s">
+        <v>105</v>
+      </c>
+      <c r="I113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J113" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5871,15 +6098,24 @@
         <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>218</v>
-      </c>
-      <c r="F114" t="s">
-        <v>305</v>
+        <v>98</v>
+      </c>
+      <c r="G114" t="s">
+        <v>96</v>
+      </c>
+      <c r="H114" t="s">
+        <v>105</v>
+      </c>
+      <c r="I114" t="s">
+        <v>106</v>
+      </c>
+      <c r="J114" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -5888,10 +6124,7 @@
         <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="G115" t="s">
         <v>96</v>
@@ -5908,7 +6141,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -5917,10 +6150,7 @@
         <v>99</v>
       </c>
       <c r="E116" t="s">
-        <v>186</v>
-      </c>
-      <c r="F116" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="G116" t="s">
         <v>96</v>
@@ -5937,7 +6167,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -5946,10 +6176,7 @@
         <v>97</v>
       </c>
       <c r="E117" t="s">
-        <v>186</v>
-      </c>
-      <c r="F117" t="s">
-        <v>279</v>
+        <v>98</v>
       </c>
       <c r="G117" t="s">
         <v>96</v>
@@ -5966,7 +6193,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -5992,7 +6219,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -6018,7 +6245,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -6044,116 +6271,92 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E121" t="s">
         <v>218</v>
       </c>
       <c r="F121" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E122" t="s">
         <v>218</v>
       </c>
       <c r="F122" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E123" t="s">
         <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F124" t="s">
-        <v>279</v>
-      </c>
-      <c r="G124" t="s">
-        <v>96</v>
-      </c>
-      <c r="H124" t="s">
-        <v>105</v>
-      </c>
-      <c r="I124" t="s">
-        <v>106</v>
-      </c>
-      <c r="J124" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F125" t="s">
-        <v>279</v>
-      </c>
-      <c r="G125" t="s">
-        <v>96</v>
-      </c>
-      <c r="H125" t="s">
-        <v>105</v>
-      </c>
-      <c r="I125" t="s">
-        <v>106</v>
-      </c>
-      <c r="J125" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -6162,36 +6365,27 @@
         <v>97</v>
       </c>
       <c r="E126" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F126" t="s">
-        <v>279</v>
-      </c>
-      <c r="G126" t="s">
-        <v>96</v>
-      </c>
-      <c r="H126" t="s">
-        <v>105</v>
-      </c>
-      <c r="I126" t="s">
-        <v>106</v>
-      </c>
-      <c r="J126" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E127" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F127" t="s">
+        <v>279</v>
       </c>
       <c r="G127" t="s">
         <v>96</v>
@@ -6208,16 +6402,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E128" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F128" t="s">
+        <v>279</v>
       </c>
       <c r="G128" t="s">
         <v>96</v>
@@ -6234,13 +6431,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E129" t="s">
         <v>98</v>
@@ -6260,13 +6457,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E130" t="s">
         <v>98</v>
@@ -6286,41 +6483,59 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
-      </c>
-      <c r="F131" t="s">
-        <v>278</v>
+        <v>98</v>
+      </c>
+      <c r="G131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" t="s">
+        <v>105</v>
+      </c>
+      <c r="I131" t="s">
+        <v>106</v>
+      </c>
+      <c r="J131" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E132" t="s">
-        <v>218</v>
-      </c>
-      <c r="F132" t="s">
-        <v>277</v>
+        <v>98</v>
+      </c>
+      <c r="G132" t="s">
+        <v>96</v>
+      </c>
+      <c r="H132" t="s">
+        <v>105</v>
+      </c>
+      <c r="I132" t="s">
+        <v>106</v>
+      </c>
+      <c r="J132" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -6329,21 +6544,30 @@
         <v>97</v>
       </c>
       <c r="E133" t="s">
-        <v>218</v>
-      </c>
-      <c r="F133" t="s">
-        <v>276</v>
+        <v>98</v>
+      </c>
+      <c r="G133" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" t="s">
+        <v>105</v>
+      </c>
+      <c r="I133" t="s">
+        <v>106</v>
+      </c>
+      <c r="J133" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E134" t="s">
         <v>98</v>
@@ -6363,85 +6587,58 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E135" t="s">
-        <v>98</v>
-      </c>
-      <c r="G135" t="s">
-        <v>96</v>
-      </c>
-      <c r="H135" t="s">
-        <v>105</v>
-      </c>
-      <c r="I135" t="s">
-        <v>106</v>
-      </c>
-      <c r="J135" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F135" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E136" t="s">
-        <v>98</v>
-      </c>
-      <c r="G136" t="s">
-        <v>96</v>
-      </c>
-      <c r="H136" t="s">
-        <v>105</v>
-      </c>
-      <c r="I136" t="s">
-        <v>106</v>
-      </c>
-      <c r="J136" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F136" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E137" t="s">
-        <v>98</v>
-      </c>
-      <c r="G137" t="s">
-        <v>96</v>
-      </c>
-      <c r="H137" t="s">
-        <v>105</v>
-      </c>
-      <c r="I137" t="s">
-        <v>106</v>
-      </c>
-      <c r="J137" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F137" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -6450,7 +6647,10 @@
         <v>100</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F138" t="s">
+        <v>279</v>
       </c>
       <c r="G138" t="s">
         <v>96</v>
@@ -6467,16 +6667,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F139" t="s">
+        <v>279</v>
       </c>
       <c r="G139" t="s">
         <v>96</v>
@@ -6493,16 +6696,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F140" t="s">
+        <v>279</v>
       </c>
       <c r="G140" t="s">
         <v>96</v>
@@ -6519,7 +6725,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -6545,13 +6751,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E142" t="s">
         <v>98</v>
@@ -6571,13 +6777,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
         <v>98</v>
@@ -6597,13 +6803,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E144" t="s">
         <v>98</v>
@@ -6623,7 +6829,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -6632,50 +6838,32 @@
         <v>100</v>
       </c>
       <c r="E145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G145" t="s">
-        <v>96</v>
-      </c>
-      <c r="H145" t="s">
-        <v>105</v>
-      </c>
-      <c r="I145" t="s">
-        <v>106</v>
-      </c>
-      <c r="J145" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F145" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
-      </c>
-      <c r="G146" t="s">
-        <v>96</v>
-      </c>
-      <c r="H146" t="s">
-        <v>105</v>
-      </c>
-      <c r="I146" t="s">
-        <v>106</v>
-      </c>
-      <c r="J146" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F146" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -6684,33 +6872,27 @@
         <v>97</v>
       </c>
       <c r="E147" t="s">
-        <v>98</v>
-      </c>
-      <c r="G147" t="s">
-        <v>96</v>
-      </c>
-      <c r="H147" t="s">
-        <v>105</v>
-      </c>
-      <c r="I147" t="s">
-        <v>106</v>
-      </c>
-      <c r="J147" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F147" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F148" t="s">
+        <v>279</v>
       </c>
       <c r="G148" t="s">
         <v>96</v>
@@ -6727,16 +6909,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E149" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F149" t="s">
+        <v>279</v>
       </c>
       <c r="G149" t="s">
         <v>96</v>
@@ -6753,7 +6938,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -6762,7 +6947,10 @@
         <v>97</v>
       </c>
       <c r="E150" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F150" t="s">
+        <v>279</v>
       </c>
       <c r="G150" t="s">
         <v>96</v>
@@ -6779,7 +6967,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -6788,10 +6976,7 @@
         <v>100</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
-      </c>
-      <c r="F151" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="G151" t="s">
         <v>96</v>
@@ -6808,7 +6993,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -6817,10 +7002,7 @@
         <v>99</v>
       </c>
       <c r="E152" t="s">
-        <v>186</v>
-      </c>
-      <c r="F152" t="s">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="G152" t="s">
         <v>96</v>
@@ -6837,7 +7019,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -6846,10 +7028,7 @@
         <v>97</v>
       </c>
       <c r="E153" t="s">
-        <v>186</v>
-      </c>
-      <c r="F153" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="G153" t="s">
         <v>96</v>
@@ -6866,7 +7045,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -6875,78 +7054,78 @@
         <v>100</v>
       </c>
       <c r="E154" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F154" t="s">
-        <v>238</v>
-      </c>
-      <c r="G154" t="s">
-        <v>96</v>
-      </c>
-      <c r="H154" t="s">
-        <v>105</v>
-      </c>
-      <c r="I154" t="s">
-        <v>106</v>
-      </c>
-      <c r="J154" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E155" t="s">
         <v>218</v>
       </c>
       <c r="F155" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E156" t="s">
         <v>218</v>
       </c>
       <c r="F156" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E157" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F157" t="s">
-        <v>242</v>
+        <v>279</v>
+      </c>
+      <c r="G157" t="s">
+        <v>96</v>
+      </c>
+      <c r="H157" t="s">
+        <v>105</v>
+      </c>
+      <c r="I157" t="s">
+        <v>106</v>
+      </c>
+      <c r="J157" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -6958,7 +7137,7 @@
         <v>186</v>
       </c>
       <c r="F158" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="G158" t="s">
         <v>96</v>
@@ -6975,7 +7154,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -6987,7 +7166,7 @@
         <v>186</v>
       </c>
       <c r="F159" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="G159" t="s">
         <v>96</v>
@@ -7004,7 +7183,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -7030,7 +7209,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -7056,7 +7235,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -7082,109 +7261,136 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E163" t="s">
-        <v>218</v>
-      </c>
-      <c r="F163" t="s">
-        <v>227</v>
+        <v>98</v>
+      </c>
+      <c r="G163" t="s">
+        <v>96</v>
+      </c>
+      <c r="H163" t="s">
+        <v>105</v>
+      </c>
+      <c r="I163" t="s">
+        <v>106</v>
+      </c>
+      <c r="J163" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E164" t="s">
         <v>218</v>
       </c>
       <c r="F164" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E165" t="s">
         <v>218</v>
       </c>
       <c r="F165" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E166" t="s">
         <v>218</v>
       </c>
       <c r="F166" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E167" t="s">
-        <v>218</v>
-      </c>
-      <c r="F167" t="s">
-        <v>223</v>
+        <v>98</v>
+      </c>
+      <c r="G167" t="s">
+        <v>96</v>
+      </c>
+      <c r="H167" t="s">
+        <v>105</v>
+      </c>
+      <c r="I167" t="s">
+        <v>106</v>
+      </c>
+      <c r="J167" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E168" t="s">
-        <v>218</v>
-      </c>
-      <c r="F168" t="s">
-        <v>222</v>
+        <v>98</v>
+      </c>
+      <c r="G168" t="s">
+        <v>96</v>
+      </c>
+      <c r="H168" t="s">
+        <v>105</v>
+      </c>
+      <c r="I168" t="s">
+        <v>106</v>
+      </c>
+      <c r="J168" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -7193,32 +7399,50 @@
         <v>97</v>
       </c>
       <c r="E169" t="s">
-        <v>218</v>
-      </c>
-      <c r="F169" t="s">
-        <v>221</v>
+        <v>98</v>
+      </c>
+      <c r="G169" t="s">
+        <v>96</v>
+      </c>
+      <c r="H169" t="s">
+        <v>105</v>
+      </c>
+      <c r="I169" t="s">
+        <v>106</v>
+      </c>
+      <c r="J169" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E170" t="s">
-        <v>218</v>
-      </c>
-      <c r="F170" t="s">
-        <v>219</v>
+        <v>98</v>
+      </c>
+      <c r="G170" t="s">
+        <v>96</v>
+      </c>
+      <c r="H170" t="s">
+        <v>105</v>
+      </c>
+      <c r="I170" t="s">
+        <v>106</v>
+      </c>
+      <c r="J170" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -7227,10 +7451,7 @@
         <v>100</v>
       </c>
       <c r="E171" t="s">
-        <v>186</v>
-      </c>
-      <c r="F171" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="G171" t="s">
         <v>96</v>
@@ -7247,19 +7468,16 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>186</v>
-      </c>
-      <c r="F172" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="G172" t="s">
         <v>96</v>
@@ -7276,19 +7494,16 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>186</v>
-      </c>
-      <c r="F173" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="G173" t="s">
         <v>96</v>
@@ -7305,7 +7520,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -7314,10 +7529,7 @@
         <v>100</v>
       </c>
       <c r="E174" t="s">
-        <v>186</v>
-      </c>
-      <c r="F174" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="G174" t="s">
         <v>96</v>
@@ -7334,19 +7546,16 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
-      </c>
-      <c r="F175" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="G175" t="s">
         <v>96</v>
@@ -7363,19 +7572,16 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E176" t="s">
-        <v>186</v>
-      </c>
-      <c r="F176" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="G176" t="s">
         <v>96</v>
@@ -7392,7 +7598,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -7418,13 +7624,13 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E178" t="s">
         <v>98</v>
@@ -7444,13 +7650,13 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E179" t="s">
         <v>98</v>
@@ -7470,19 +7676,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E180" t="s">
-        <v>186</v>
-      </c>
-      <c r="F180" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="G180" t="s">
         <v>96</v>
@@ -7499,19 +7702,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E181" t="s">
-        <v>186</v>
-      </c>
-      <c r="F181" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="G181" t="s">
         <v>96</v>
@@ -7528,19 +7728,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E182" t="s">
-        <v>186</v>
-      </c>
-      <c r="F182" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="G182" t="s">
         <v>96</v>
@@ -7557,13 +7754,13 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E183" t="s">
         <v>98</v>
@@ -7583,16 +7780,19 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E184" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F184" t="s">
+        <v>241</v>
       </c>
       <c r="G184" t="s">
         <v>96</v>
@@ -7609,16 +7809,19 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F185" t="s">
+        <v>240</v>
       </c>
       <c r="G185" t="s">
         <v>96</v>
@@ -7635,19 +7838,19 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E186" t="s">
         <v>186</v>
       </c>
       <c r="F186" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="G186" t="s">
         <v>96</v>
@@ -7664,19 +7867,19 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E187" t="s">
         <v>186</v>
       </c>
       <c r="F187" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="G187" t="s">
         <v>96</v>
@@ -7693,100 +7896,70 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E188" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F188" t="s">
-        <v>190</v>
-      </c>
-      <c r="G188" t="s">
-        <v>96</v>
-      </c>
-      <c r="H188" t="s">
-        <v>105</v>
-      </c>
-      <c r="I188" t="s">
-        <v>106</v>
-      </c>
-      <c r="J188" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E189" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F189" t="s">
-        <v>189</v>
-      </c>
-      <c r="G189" t="s">
-        <v>96</v>
-      </c>
-      <c r="H189" t="s">
-        <v>105</v>
-      </c>
-      <c r="I189" t="s">
-        <v>106</v>
-      </c>
-      <c r="J189" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E190" t="s">
-        <v>98</v>
-      </c>
-      <c r="G190" t="s">
-        <v>96</v>
-      </c>
-      <c r="H190" t="s">
-        <v>105</v>
-      </c>
-      <c r="I190" t="s">
-        <v>106</v>
-      </c>
-      <c r="J190" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F190" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E191" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F191" t="s">
+        <v>216</v>
       </c>
       <c r="G191" t="s">
         <v>96</v>
@@ -7803,7 +7976,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -7812,7 +7985,10 @@
         <v>97</v>
       </c>
       <c r="E192" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F192" t="s">
+        <v>215</v>
       </c>
       <c r="G192" t="s">
         <v>96</v>
@@ -7829,13 +8005,13 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E193" t="s">
         <v>98</v>
@@ -7855,13 +8031,13 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E194" t="s">
         <v>98</v>
@@ -7881,7 +8057,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -7907,59 +8083,41 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E196" t="s">
-        <v>98</v>
-      </c>
-      <c r="G196" t="s">
-        <v>96</v>
-      </c>
-      <c r="H196" t="s">
-        <v>105</v>
-      </c>
-      <c r="I196" t="s">
-        <v>106</v>
-      </c>
-      <c r="J196" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F196" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
-      </c>
-      <c r="G197" t="s">
-        <v>96</v>
-      </c>
-      <c r="H197" t="s">
-        <v>105</v>
-      </c>
-      <c r="I197" t="s">
-        <v>106</v>
-      </c>
-      <c r="J197" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F197" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -7968,134 +8126,83 @@
         <v>97</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
-      </c>
-      <c r="G198" t="s">
-        <v>96</v>
-      </c>
-      <c r="H198" t="s">
-        <v>105</v>
-      </c>
-      <c r="I198" t="s">
-        <v>106</v>
-      </c>
-      <c r="J198" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F198" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
-      </c>
-      <c r="G199" t="s">
-        <v>96</v>
-      </c>
-      <c r="H199" t="s">
-        <v>105</v>
-      </c>
-      <c r="I199" t="s">
-        <v>106</v>
-      </c>
-      <c r="J199" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F199" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E200" t="s">
-        <v>98</v>
-      </c>
-      <c r="G200" t="s">
-        <v>96</v>
-      </c>
-      <c r="H200" t="s">
-        <v>105</v>
-      </c>
-      <c r="I200" t="s">
-        <v>106</v>
-      </c>
-      <c r="J200" t="s">
-        <v>107</v>
+        <v>218</v>
+      </c>
+      <c r="F200" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E201" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F201" t="s">
-        <v>151</v>
-      </c>
-      <c r="G201" t="s">
-        <v>96</v>
-      </c>
-      <c r="H201" t="s">
-        <v>105</v>
-      </c>
-      <c r="I201" t="s">
-        <v>106</v>
-      </c>
-      <c r="J201" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E202" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F202" t="s">
-        <v>150</v>
-      </c>
-      <c r="G202" t="s">
-        <v>96</v>
-      </c>
-      <c r="H202" t="s">
-        <v>105</v>
-      </c>
-      <c r="I202" t="s">
-        <v>106</v>
-      </c>
-      <c r="J202" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -8104,111 +8211,114 @@
         <v>97</v>
       </c>
       <c r="E203" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F203" t="s">
-        <v>149</v>
-      </c>
-      <c r="G203" t="s">
-        <v>96</v>
-      </c>
-      <c r="H203" t="s">
-        <v>105</v>
-      </c>
-      <c r="I203" t="s">
-        <v>106</v>
-      </c>
-      <c r="J203" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E204" t="s">
         <v>186</v>
       </c>
       <c r="F204" t="s">
-        <v>148</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H204" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I204" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J204" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G204" t="s">
+        <v>96</v>
+      </c>
+      <c r="H204" t="s">
+        <v>105</v>
+      </c>
+      <c r="I204" t="s">
+        <v>106</v>
+      </c>
+      <c r="J204" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E205" t="s">
         <v>186</v>
       </c>
       <c r="F205" t="s">
-        <v>147</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H205" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J205" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G205" t="s">
+        <v>96</v>
+      </c>
+      <c r="H205" t="s">
+        <v>105</v>
+      </c>
+      <c r="I205" t="s">
+        <v>106</v>
+      </c>
+      <c r="J205" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>97</v>
       </c>
       <c r="E206" t="s">
         <v>186</v>
       </c>
       <c r="F206" t="s">
-        <v>146</v>
+        <v>212</v>
+      </c>
+      <c r="G206" t="s">
+        <v>96</v>
+      </c>
+      <c r="H206" t="s">
+        <v>105</v>
+      </c>
+      <c r="I206" t="s">
+        <v>106</v>
+      </c>
+      <c r="J206" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E207" t="s">
         <v>186</v>
       </c>
       <c r="F207" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="G207" t="s">
         <v>96</v>
@@ -8225,17 +8335,20 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E208" t="s">
         <v>186</v>
       </c>
+      <c r="F208" t="s">
+        <v>210</v>
+      </c>
       <c r="G208" t="s">
         <v>96</v>
       </c>
@@ -8251,16 +8364,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E209" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F209" t="s">
+        <v>209</v>
       </c>
       <c r="G209" t="s">
         <v>96</v>
@@ -8277,13 +8393,13 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E210" t="s">
         <v>98</v>
@@ -8303,7 +8419,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -8329,13 +8445,13 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E212" t="s">
         <v>98</v>
@@ -8355,16 +8471,19 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E213" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F213" t="s">
+        <v>208</v>
       </c>
       <c r="G213" t="s">
         <v>96</v>
@@ -8381,7 +8500,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -8390,7 +8509,10 @@
         <v>99</v>
       </c>
       <c r="E214" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F214" t="s">
+        <v>207</v>
       </c>
       <c r="G214" t="s">
         <v>96</v>
@@ -8407,16 +8529,19 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E215" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F215" t="s">
+        <v>206</v>
       </c>
       <c r="G215" t="s">
         <v>96</v>
@@ -8433,7 +8558,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -8459,7 +8584,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -8485,7 +8610,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -8511,16 +8636,19 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E219" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F219" t="s">
+        <v>192</v>
       </c>
       <c r="G219" t="s">
         <v>96</v>
@@ -8537,7 +8665,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -8546,7 +8674,10 @@
         <v>99</v>
       </c>
       <c r="E220" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F220" t="s">
+        <v>191</v>
       </c>
       <c r="G220" t="s">
         <v>96</v>
@@ -8563,16 +8694,19 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E221" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F221" t="s">
+        <v>190</v>
       </c>
       <c r="G221" t="s">
         <v>96</v>
@@ -8589,33 +8723,36 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E222" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F222" t="s">
+        <v>189</v>
       </c>
       <c r="G222" t="s">
         <v>96</v>
       </c>
-      <c r="H222" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J222" s="5" t="s">
+      <c r="H222" t="s">
+        <v>105</v>
+      </c>
+      <c r="I222" t="s">
+        <v>106</v>
+      </c>
+      <c r="J222" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -8641,13 +8778,13 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E224" t="s">
         <v>98</v>
@@ -8667,13 +8804,13 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E225" t="s">
         <v>98</v>
@@ -8693,13 +8830,13 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E226" t="s">
         <v>98</v>
@@ -8719,13 +8856,13 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E227" t="s">
         <v>98</v>
@@ -8745,13 +8882,13 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E228" t="s">
         <v>98</v>
@@ -8771,13 +8908,13 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E229" t="s">
         <v>98</v>
@@ -8797,13 +8934,13 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E230" t="s">
         <v>98</v>
@@ -8823,13 +8960,13 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E231" t="s">
         <v>98</v>
@@ -8849,13 +8986,13 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E232" t="s">
         <v>98</v>
@@ -8864,10 +9001,10 @@
         <v>96</v>
       </c>
       <c r="H232" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I232" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J232" t="s">
         <v>107</v>
@@ -8875,13 +9012,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E233" t="s">
         <v>98</v>
@@ -8890,10 +9027,10 @@
         <v>96</v>
       </c>
       <c r="H233" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I233" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J233" t="s">
         <v>107</v>
@@ -8901,94 +9038,106 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C234" t="s">
         <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E234" t="s">
-        <v>98</v>
-      </c>
-      <c r="G234" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I234" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J234" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F234" t="s">
+        <v>151</v>
+      </c>
+      <c r="G234" t="s">
+        <v>96</v>
+      </c>
+      <c r="H234" t="s">
+        <v>105</v>
+      </c>
+      <c r="I234" t="s">
+        <v>106</v>
+      </c>
+      <c r="J234" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E235" t="s">
-        <v>98</v>
-      </c>
-      <c r="G235" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I235" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J235" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F235" t="s">
+        <v>150</v>
+      </c>
+      <c r="G235" t="s">
+        <v>96</v>
+      </c>
+      <c r="H235" t="s">
+        <v>105</v>
+      </c>
+      <c r="I235" t="s">
+        <v>106</v>
+      </c>
+      <c r="J235" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E236" t="s">
-        <v>98</v>
-      </c>
-      <c r="G236" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H236" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I236" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J236" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F236" t="s">
+        <v>149</v>
+      </c>
+      <c r="G236" t="s">
+        <v>96</v>
+      </c>
+      <c r="H236" t="s">
+        <v>105</v>
+      </c>
+      <c r="I236" t="s">
+        <v>106</v>
+      </c>
+      <c r="J236" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E237" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F237" t="s">
+        <v>148</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>96</v>
@@ -9005,16 +9154,19 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E238" t="s">
-        <v>98</v>
+        <v>186</v>
+      </c>
+      <c r="F238" t="s">
+        <v>147</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>96</v>
@@ -9031,378 +9183,1227 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
       </c>
-      <c r="D239" t="s">
-        <v>97</v>
-      </c>
       <c r="E239" t="s">
-        <v>98</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I239" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>107</v>
+        <v>186</v>
+      </c>
+      <c r="F239" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E240" t="s">
-        <v>101</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I240" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J240" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F240" t="s">
+        <v>145</v>
+      </c>
+      <c r="G240" t="s">
+        <v>96</v>
+      </c>
+      <c r="H240" t="s">
+        <v>105</v>
+      </c>
+      <c r="I240" t="s">
+        <v>106</v>
+      </c>
+      <c r="J240" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E241" t="s">
-        <v>101</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I241" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J241" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G241" t="s">
+        <v>96</v>
+      </c>
+      <c r="H241" t="s">
+        <v>105</v>
+      </c>
+      <c r="I241" t="s">
+        <v>106</v>
+      </c>
+      <c r="J241" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E242" t="s">
-        <v>101</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I242" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J242" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G242" t="s">
+        <v>96</v>
+      </c>
+      <c r="H242" t="s">
+        <v>105</v>
+      </c>
+      <c r="I242" t="s">
+        <v>106</v>
+      </c>
+      <c r="J242" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E243" t="s">
         <v>98</v>
       </c>
-      <c r="G243" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I243" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J243" s="5" t="s">
+      <c r="G243" t="s">
+        <v>96</v>
+      </c>
+      <c r="H243" t="s">
+        <v>105</v>
+      </c>
+      <c r="I243" t="s">
+        <v>106</v>
+      </c>
+      <c r="J243" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E244" t="s">
         <v>98</v>
       </c>
-      <c r="G244" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I244" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J244" s="5" t="s">
+      <c r="G244" t="s">
+        <v>96</v>
+      </c>
+      <c r="H244" t="s">
+        <v>105</v>
+      </c>
+      <c r="I244" t="s">
+        <v>106</v>
+      </c>
+      <c r="J244" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E245" t="s">
-        <v>101</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H245" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I245" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J245" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G245" t="s">
+        <v>96</v>
+      </c>
+      <c r="H245" t="s">
+        <v>105</v>
+      </c>
+      <c r="I245" t="s">
+        <v>106</v>
+      </c>
+      <c r="J245" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E246" t="s">
-        <v>101</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I246" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J246" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G246" t="s">
+        <v>96</v>
+      </c>
+      <c r="H246" t="s">
+        <v>105</v>
+      </c>
+      <c r="I246" t="s">
+        <v>106</v>
+      </c>
+      <c r="J246" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E247" t="s">
-        <v>101</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I247" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J247" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G247" t="s">
+        <v>96</v>
+      </c>
+      <c r="H247" t="s">
+        <v>105</v>
+      </c>
+      <c r="I247" t="s">
+        <v>106</v>
+      </c>
+      <c r="J247" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E248" t="s">
         <v>98</v>
       </c>
-      <c r="G248" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I248" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J248" s="5" t="s">
+      <c r="G248" t="s">
+        <v>96</v>
+      </c>
+      <c r="H248" t="s">
+        <v>105</v>
+      </c>
+      <c r="I248" t="s">
+        <v>106</v>
+      </c>
+      <c r="J248" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E249" t="s">
         <v>98</v>
       </c>
-      <c r="G249" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I249" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J249" s="5" t="s">
+      <c r="G249" t="s">
+        <v>96</v>
+      </c>
+      <c r="H249" t="s">
+        <v>105</v>
+      </c>
+      <c r="I249" t="s">
+        <v>106</v>
+      </c>
+      <c r="J249" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E250" t="s">
         <v>98</v>
       </c>
-      <c r="G250" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I250" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J250" s="5" t="s">
+      <c r="G250" t="s">
+        <v>96</v>
+      </c>
+      <c r="H250" t="s">
+        <v>105</v>
+      </c>
+      <c r="I250" t="s">
+        <v>106</v>
+      </c>
+      <c r="J250" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>97</v>
+      </c>
+      <c r="E251" t="s">
+        <v>98</v>
+      </c>
+      <c r="G251" t="s">
+        <v>96</v>
+      </c>
+      <c r="H251" t="s">
+        <v>105</v>
+      </c>
+      <c r="I251" t="s">
+        <v>106</v>
+      </c>
+      <c r="J251" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>97</v>
+      </c>
+      <c r="E252" t="s">
+        <v>98</v>
+      </c>
+      <c r="G252" t="s">
+        <v>96</v>
+      </c>
+      <c r="H252" t="s">
+        <v>105</v>
+      </c>
+      <c r="I252" t="s">
+        <v>106</v>
+      </c>
+      <c r="J252" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>99</v>
+      </c>
+      <c r="E253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G253" t="s">
+        <v>96</v>
+      </c>
+      <c r="H253" t="s">
+        <v>105</v>
+      </c>
+      <c r="I253" t="s">
+        <v>106</v>
+      </c>
+      <c r="J253" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>99</v>
+      </c>
+      <c r="E254" t="s">
+        <v>98</v>
+      </c>
+      <c r="G254" t="s">
+        <v>96</v>
+      </c>
+      <c r="H254" t="s">
+        <v>105</v>
+      </c>
+      <c r="I254" t="s">
+        <v>106</v>
+      </c>
+      <c r="J254" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>121</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>99</v>
+      </c>
+      <c r="E255" t="s">
+        <v>98</v>
+      </c>
+      <c r="G255" t="s">
+        <v>96</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J255" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>120</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>99</v>
+      </c>
+      <c r="E256" t="s">
+        <v>98</v>
+      </c>
+      <c r="G256" t="s">
+        <v>96</v>
+      </c>
+      <c r="H256" t="s">
+        <v>105</v>
+      </c>
+      <c r="I256" t="s">
+        <v>106</v>
+      </c>
+      <c r="J256" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>119</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>99</v>
+      </c>
+      <c r="E257" t="s">
+        <v>98</v>
+      </c>
+      <c r="G257" t="s">
+        <v>96</v>
+      </c>
+      <c r="H257" t="s">
+        <v>105</v>
+      </c>
+      <c r="I257" t="s">
+        <v>106</v>
+      </c>
+      <c r="J257" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>118</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>99</v>
+      </c>
+      <c r="E258" t="s">
+        <v>98</v>
+      </c>
+      <c r="G258" t="s">
+        <v>96</v>
+      </c>
+      <c r="H258" t="s">
+        <v>105</v>
+      </c>
+      <c r="I258" t="s">
+        <v>106</v>
+      </c>
+      <c r="J258" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>117</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>99</v>
+      </c>
+      <c r="E259" t="s">
+        <v>98</v>
+      </c>
+      <c r="G259" t="s">
+        <v>96</v>
+      </c>
+      <c r="H259" t="s">
+        <v>105</v>
+      </c>
+      <c r="I259" t="s">
+        <v>106</v>
+      </c>
+      <c r="J259" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>116</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>99</v>
+      </c>
+      <c r="E260" t="s">
+        <v>98</v>
+      </c>
+      <c r="G260" t="s">
+        <v>96</v>
+      </c>
+      <c r="H260" t="s">
+        <v>105</v>
+      </c>
+      <c r="I260" t="s">
+        <v>106</v>
+      </c>
+      <c r="J260" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>115</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>99</v>
+      </c>
+      <c r="E261" t="s">
+        <v>98</v>
+      </c>
+      <c r="G261" t="s">
+        <v>96</v>
+      </c>
+      <c r="H261" t="s">
+        <v>105</v>
+      </c>
+      <c r="I261" t="s">
+        <v>106</v>
+      </c>
+      <c r="J261" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>85</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>99</v>
+      </c>
+      <c r="E262" t="s">
+        <v>98</v>
+      </c>
+      <c r="G262" t="s">
+        <v>96</v>
+      </c>
+      <c r="H262" t="s">
+        <v>105</v>
+      </c>
+      <c r="I262" t="s">
+        <v>106</v>
+      </c>
+      <c r="J262" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>84</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>99</v>
+      </c>
+      <c r="E263" t="s">
+        <v>98</v>
+      </c>
+      <c r="G263" t="s">
+        <v>96</v>
+      </c>
+      <c r="H263" t="s">
+        <v>105</v>
+      </c>
+      <c r="I263" t="s">
+        <v>106</v>
+      </c>
+      <c r="J263" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>99</v>
+      </c>
+      <c r="E264" t="s">
+        <v>98</v>
+      </c>
+      <c r="G264" t="s">
+        <v>96</v>
+      </c>
+      <c r="H264" t="s">
+        <v>105</v>
+      </c>
+      <c r="I264" t="s">
+        <v>106</v>
+      </c>
+      <c r="J264" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>82</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>99</v>
+      </c>
+      <c r="E265" t="s">
+        <v>98</v>
+      </c>
+      <c r="G265" t="s">
+        <v>96</v>
+      </c>
+      <c r="H265" t="s">
+        <v>110</v>
+      </c>
+      <c r="I265" t="s">
+        <v>111</v>
+      </c>
+      <c r="J265" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>81</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>99</v>
+      </c>
+      <c r="E266" t="s">
+        <v>98</v>
+      </c>
+      <c r="G266" t="s">
+        <v>96</v>
+      </c>
+      <c r="H266" t="s">
+        <v>110</v>
+      </c>
+      <c r="I266" t="s">
+        <v>111</v>
+      </c>
+      <c r="J266" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>80</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>97</v>
+      </c>
+      <c r="E267" t="s">
+        <v>98</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>79</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>100</v>
+      </c>
+      <c r="E268" t="s">
+        <v>98</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>78</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>99</v>
+      </c>
+      <c r="E269" t="s">
+        <v>98</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>76</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>100</v>
+      </c>
+      <c r="E270" t="s">
+        <v>98</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J270" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>75</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>99</v>
+      </c>
+      <c r="E271" t="s">
+        <v>98</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>74</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>97</v>
+      </c>
+      <c r="E272" t="s">
+        <v>98</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>73</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>99</v>
+      </c>
+      <c r="E273" t="s">
+        <v>101</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>72</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>97</v>
+      </c>
+      <c r="E274" t="s">
+        <v>101</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>71</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>100</v>
+      </c>
+      <c r="E275" t="s">
+        <v>101</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>70</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>99</v>
+      </c>
+      <c r="E276" t="s">
+        <v>98</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>69</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>97</v>
+      </c>
+      <c r="E277" t="s">
+        <v>98</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>68</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>97</v>
+      </c>
+      <c r="E278" t="s">
+        <v>101</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>67</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>97</v>
+      </c>
+      <c r="E279" t="s">
+        <v>101</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I279" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J279" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>66</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>97</v>
+      </c>
+      <c r="E280" t="s">
+        <v>101</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>65</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>100</v>
+      </c>
+      <c r="E281" t="s">
+        <v>98</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I281" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J281" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>64</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>99</v>
+      </c>
+      <c r="E282" t="s">
+        <v>98</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>63</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>97</v>
+      </c>
+      <c r="E283" t="s">
+        <v>98</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J283" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>61</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>60</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>45</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>43</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
         <v>42</v>
       </c>
-      <c r="C255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B256" s="4" t="s">
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C256" t="s">
-        <v>2</v>
-      </c>
-      <c r="D256" t="s">
-        <v>97</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>97</v>
+      </c>
+      <c r="E289" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9411,11 +10412,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9536,13 +10537,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -9550,9 +10551,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="19.140625" collapsed="true"/>
-    <col min="3" max="5" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9572,9 +10573,9 @@
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -9589,53 +10590,74 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row customFormat="1" r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row customFormat="1" r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row customFormat="1" r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row customFormat="1" r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="5">
+        <v>737</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5">
+        <v>737</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5">
+        <v>737</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9649,44 +10671,58 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
-      </c>
-    </row>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9695,11 +10731,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -9709,7 +10745,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -9734,13 +10770,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9749,8 +10785,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9855,25 +10891,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -9890,9 +10926,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -9907,9 +10943,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
@@ -9924,9 +10960,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
@@ -9941,9 +10977,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
@@ -9958,9 +10994,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
         <v>96</v>
@@ -9975,9 +11011,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
@@ -9992,9 +11028,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
@@ -10009,9 +11045,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -10026,9 +11062,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
@@ -10043,9 +11079,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
@@ -10060,36 +11096,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="5">
-        <v>737</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="5">
-        <v>737</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>